--- a/public/standaard_excel.xlsx
+++ b/public/standaard_excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rosas\Desktop\2025\prjectapp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC76FE6E-CDCA-4B5B-B5E0-6574F012F0C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55A802B1-A5EE-4F9B-B49C-CC664B0F076E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30" yWindow="2130" windowWidth="20490" windowHeight="7328" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Incidenten" sheetId="1" r:id="rId1"/>
@@ -219,7 +219,7 @@
     <t>Handleiding</t>
   </si>
   <si>
-    <t>Bestanden beheren.pdf</t>
+    <t>Unknown erro bij DMS import.pdf</t>
   </si>
 </sst>
 </file>
@@ -923,7 +923,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/public/standaard_excel.xlsx
+++ b/public/standaard_excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rosas\Desktop\2025\prjectapp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55A802B1-A5EE-4F9B-B49C-CC664B0F076E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C89A70C8-AE70-4D32-B666-E75511237120}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30" yWindow="2130" windowWidth="20490" windowHeight="7328" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/public/standaard_excel.xlsx
+++ b/public/standaard_excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rosas\Desktop\2025\prjectapp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C89A70C8-AE70-4D32-B666-E75511237120}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96E44B98-7A07-4CF4-B07B-CC6E7C77C428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="2130" windowWidth="20490" windowHeight="7328" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2123" yWindow="458" windowWidth="18525" windowHeight="8190" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Incidenten" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="61">
   <si>
     <t>ID</t>
   </si>
@@ -102,30 +102,6 @@
     <t>Verantwoordelijke</t>
   </si>
   <si>
-    <t>Sluit vergaderruimte aan op vaste lijn</t>
-  </si>
-  <si>
-    <t>Netwerkbeheerder</t>
-  </si>
-  <si>
-    <t>Ontwikkel en verspreid instructievideo</t>
-  </si>
-  <si>
-    <t>Communicatieadviseur</t>
-  </si>
-  <si>
-    <t>Plan reparatie of aanschaf van hardware</t>
-  </si>
-  <si>
-    <t>Inkoop + Technische Dienst</t>
-  </si>
-  <si>
-    <t>Laat UPS installeren door leverancier</t>
-  </si>
-  <si>
-    <t>Facilitair beheer + Leverancier</t>
-  </si>
-  <si>
     <t>Deelnemers niet goed in beeld gebracht</t>
   </si>
   <si>
@@ -210,23 +186,52 @@
     <t>Bij geen opname, start opnames handmatig via Crestron</t>
   </si>
   <si>
-    <t>Na de vergadering: Haalt video/audio via MVI computer (Zie handleiding: Bestanden beheren van vergaderingen.pdf))</t>
-  </si>
-  <si>
-    <t>Verstuurt het bestand naar CwC, geef daarbij door: CIE-naam+datum+tijdstip+ruimte</t>
-  </si>
-  <si>
     <t>Handleiding</t>
   </si>
   <si>
     <t>Unknown erro bij DMS import.pdf</t>
+  </si>
+  <si>
+    <t>Verstuurt het video/audio bestand naar CwC, geef daarbij door: CIE-naam+datum+tijdstip+ruimte</t>
+  </si>
+  <si>
+    <t>Indien het video/audio bestand niet compleet is, vraag deze aan Jacot</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Na de vergadering:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Haalt video/audio via MVI computer (Zie handleiding: Bestanden beheren van vergaderingen.pdf))</t>
+    </r>
+  </si>
+  <si>
+    <t>In Crestron, tab Opname, Start opname in Audiovisueel-recorder (audio opname start dan automatisch)</t>
+  </si>
+  <si>
+    <t>Vraagt voor de zekerheid aan Jacot of audio-opname loopt (TASCAM)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -238,6 +243,19 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Bolder"/>
     </font>
   </fonts>
   <fills count="2">
@@ -275,7 +293,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -283,6 +301,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -591,13 +610,13 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="8.3984375" customWidth="1"/>
     <col min="2" max="2" width="51.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -605,26 +624,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -632,7 +651,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -640,7 +659,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -648,7 +667,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -656,7 +675,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -664,7 +683,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -682,16 +701,16 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="3" max="3" width="49.59765625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="56.86328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,7 +724,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -713,16 +732,16 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" t="s">
         <v>37</v>
       </c>
-      <c r="E2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
@@ -730,16 +749,16 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D3" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>3</v>
       </c>
@@ -747,16 +766,16 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>4</v>
       </c>
@@ -764,16 +783,16 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="D5" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>5</v>
       </c>
@@ -781,13 +800,13 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>6</v>
       </c>
@@ -795,13 +814,13 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>7</v>
       </c>
@@ -809,13 +828,13 @@
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>8</v>
       </c>
@@ -829,7 +848,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>9</v>
       </c>
@@ -843,7 +862,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>10</v>
       </c>
@@ -857,7 +876,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>11</v>
       </c>
@@ -871,7 +890,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5">
       <c r="A13">
         <v>12</v>
       </c>
@@ -885,7 +904,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5">
       <c r="A14">
         <v>13</v>
       </c>
@@ -899,7 +918,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5">
       <c r="A15">
         <v>14</v>
       </c>
@@ -920,13 +939,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="11.59765625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="66.1328125" customWidth="1"/>
@@ -935,7 +954,7 @@
     <col min="6" max="6" width="34.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -949,13 +968,13 @@
         <v>25</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
@@ -963,13 +982,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="D2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
@@ -977,13 +996,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>3</v>
       </c>
@@ -991,13 +1010,13 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1005,13 +1024,13 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1019,16 +1038,16 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D6" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="E6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1036,13 +1055,13 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="28.5">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1050,16 +1069,16 @@
         <v>3</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D8" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1067,66 +1086,94 @@
         <v>3</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A10">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="28.5">
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="28.5">
+      <c r="A11">
         <v>9</v>
       </c>
-      <c r="B10">
+      <c r="B11">
         <v>4</v>
       </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A11">
+      <c r="C11" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12">
         <v>10</v>
       </c>
-      <c r="B11">
-        <v>6</v>
-      </c>
-      <c r="C11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A12">
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="28.5">
+      <c r="A13">
         <v>11</v>
       </c>
-      <c r="B12">
-        <v>7</v>
-      </c>
-      <c r="C12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A13">
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14">
         <v>12</v>
       </c>
-      <c r="B13">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" t="s">
-        <v>33</v>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="28.5">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/public/standaard_excel.xlsx
+++ b/public/standaard_excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rosas\Desktop\2025\prjectapp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96E44B98-7A07-4CF4-B07B-CC6E7C77C428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89C2451D-7DA0-46D8-8BFF-0C596089AC02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2123" yWindow="458" windowWidth="18525" windowHeight="8190" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1148" yWindow="218" windowWidth="18524" windowHeight="8189" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Incidenten" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="85">
   <si>
     <t>ID</t>
   </si>
@@ -30,97 +30,19 @@
     <t>Beschrijving</t>
   </si>
   <si>
-    <t>AV-installatie functioneert niet bij aanvang vergadering</t>
-  </si>
-  <si>
-    <t>Instellingen van apparatuur onjuist</t>
-  </si>
-  <si>
-    <t>Verbindingsproblemen met externe deelnemers</t>
-  </si>
-  <si>
-    <t>Onvoldoende instructies over gebruik apparatuur</t>
-  </si>
-  <si>
-    <t>Technisch defect in hardware</t>
-  </si>
-  <si>
-    <t>Stroomvoorziening onderbroken</t>
-  </si>
-  <si>
     <t>IncidentID</t>
   </si>
   <si>
     <t>Consequentie</t>
   </si>
   <si>
-    <t>Gebruikersinstructies plaatsen bij scherm</t>
-  </si>
-  <si>
-    <t>Extra papier of display vereist</t>
-  </si>
-  <si>
-    <t>Technische dienst vooraf laten controleren</t>
-  </si>
-  <si>
-    <t>Extra werklast voor TD</t>
-  </si>
-  <si>
-    <t>Standaard instellingen vooraf laden</t>
-  </si>
-  <si>
-    <t>Vooraf configuratie vereist</t>
-  </si>
-  <si>
-    <t>Gebruik vaste ethernetverbinding</t>
-  </si>
-  <si>
-    <t>Beperkte flexibiliteit</t>
-  </si>
-  <si>
-    <t>Training of instructievideo aanbieden</t>
-  </si>
-  <si>
-    <t>Tijdsinvestering voor personeel</t>
-  </si>
-  <si>
-    <t>Apparatuur vervangen of laten repareren</t>
-  </si>
-  <si>
-    <t>Kosten en vertraging</t>
-  </si>
-  <si>
-    <t>Noodstroomvoorziening installeren</t>
-  </si>
-  <si>
-    <t>Investering vereist</t>
-  </si>
-  <si>
     <t>OplossingID</t>
   </si>
   <si>
     <t>Verantwoordelijke</t>
   </si>
   <si>
-    <t>Deelnemers niet goed in beeld gebracht</t>
-  </si>
-  <si>
-    <t>oké</t>
-  </si>
-  <si>
-    <t>Vergadering wordt niet op het RIS uitgezonden</t>
-  </si>
-  <si>
-    <t>Terugkoppeling vanaf MMT wanneer het weer werkt</t>
-  </si>
-  <si>
     <t>Vergaderen zonder livestream</t>
-  </si>
-  <si>
-    <t>Nu vergaderen, video wordt later beschikbaar gesteld</t>
-  </si>
-  <si>
-    <t>Kan niet worden vergaderd, escalatie naar Jacot nodig</t>
   </si>
   <si>
     <t>Via MVI, beeld richten op deelnemer</t>
@@ -225,6 +147,156 @@
   </si>
   <si>
     <t>Vraagt voor de zekerheid aan Jacot of audio-opname loopt (TASCAM)</t>
+  </si>
+  <si>
+    <t>Er is geen livestream op het RIS</t>
+  </si>
+  <si>
+    <t>Deelnemers worden niet optimaal in beeld gebracht</t>
+  </si>
+  <si>
+    <t>In MVI, tab Camera met de pijlen de camera bewegen om de deelnemer goed in beeld te krijgen</t>
+  </si>
+  <si>
+    <t>Verhuis de deelnemer naar een andere plaats in de zaal (lege plek/katheder/plek wethouder). De twee plekken rechtsachter in de raadzaal zijn ingesteld voor mensen die zittend moeten praten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Via joystick de overzichtcamera de hele zaal tonen of </t>
+  </si>
+  <si>
+    <t>Handmatig de camera’s richten op de spreker</t>
+  </si>
+  <si>
+    <t>Sprekers zijn niet goed te horen of te verstaan</t>
+  </si>
+  <si>
+    <t>Indien geen lege plek meer, moet deelnemer om de beurt praten via dezelfde microfoonpost</t>
+  </si>
+  <si>
+    <t>Indien meerdere microfoonposten defect is iemand nodig om steeds de microfoons langs te brengen</t>
+  </si>
+  <si>
+    <t>Via de ambiance microfoons wordt alles achterin de zaal hoorbaar, zelfs als microfoonposten uit staan</t>
+  </si>
+  <si>
+    <t>Gebruik handmicrofoons (eventueel in combinatie met ambiance microfoons)</t>
+  </si>
+  <si>
+    <t>Gebruik ambiance microfoons ((eventueel in combinatie met handmicrofoons)</t>
+  </si>
+  <si>
+    <t>Verhuis de deelnemer naar een andere plaats in de zaal (lege plek/katheder/plek wethouder). De twee plekken rechtsachter in de raadzaal zijn ingesteld voor mensen die zittend moeten praten, anders worden ze niet goed in beeld gebracht</t>
+  </si>
+  <si>
+    <t>Er zijn twee handmicrofoons in de zaal. Pak deze uit de doos en doe de microfoons aan (knopje aan de onderkant)</t>
+  </si>
+  <si>
+    <t>Via Crestron, tab 'Audio in' unmute de twee microfoon: Microfoon 1 en Microfoon 2</t>
+  </si>
+  <si>
+    <t>Als beide microfoons nodig zijn, dan terwijl een spreker met een microfoon praat, geef de volgende spreker de andere microfoon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In situaties waarbij alleen de microfoon van de discussiepost defect is dan, gebruik  alsnog de discussiepost i.c.m. handmicrofoon </t>
+  </si>
+  <si>
+    <t>MMT/Secretaris</t>
+  </si>
+  <si>
+    <t>Secretaris/Bodes</t>
+  </si>
+  <si>
+    <t>Unmute de ambiancemicrofoons via Crestron via tab 'Audio in': Ambiance Mic</t>
+  </si>
+  <si>
+    <t>Laat de deelnemers harder praten. Let op: alles wat achterin gezegd wordt, wordt dan uitgezonden</t>
+  </si>
+  <si>
+    <t>MVI systeem valt uit</t>
+  </si>
+  <si>
+    <t>Besloten' knop werkt niet</t>
+  </si>
+  <si>
+    <t>Er wordt geen opname van de (besloten) vergadering gemaakt</t>
+  </si>
+  <si>
+    <t>Via handen in de lucht stemmers en handmatig tellen</t>
+  </si>
+  <si>
+    <t>Check of het stemmingsbestand 'MVI-computer bestand Vote_&lt;Ddatum&gt;_&lt;tijdstip&gt;’ in MVI klopt met de huidige stemresultaten</t>
+  </si>
+  <si>
+    <t>Stemmingen worden niet automatisch getoond (MVI of op het RIS)</t>
+  </si>
+  <si>
+    <t>Stemmingsresultaten worden aan iBabs doorgegeven via de koppeling of later toegevoegd</t>
+  </si>
+  <si>
+    <t>Checken of stemmingsbestand in MVI klopt met de stemresultaten</t>
+  </si>
+  <si>
+    <t>Stemmingen worden dan niet meer verwerkt, deze komen alleen in de notulen te staan</t>
+  </si>
+  <si>
+    <t>In het stemvenster laat deelnemers de hand opsteken om voor en tegen te stemmen</t>
+  </si>
+  <si>
+    <t>Tel het aantal voor- en tegenstemmen</t>
+  </si>
+  <si>
+    <t>Voorzitter zegt hardop wie voor en tegen was</t>
+  </si>
+  <si>
+    <t>De afspraak is dat de stemmingen niet worden verwerkt, deze worden wel in de notulen opgenomen</t>
+  </si>
+  <si>
+    <t>Publiek via iBabs informeren dat de webcast later wordt geplaatst</t>
+  </si>
+  <si>
+    <t>Griffier</t>
+  </si>
+  <si>
+    <t>Voorzitter/griffier</t>
+  </si>
+  <si>
+    <t>Voorziter</t>
+  </si>
+  <si>
+    <t>Spreektijd loopt niet</t>
+  </si>
+  <si>
+    <t>Brandmelding</t>
+  </si>
+  <si>
+    <t>Stroomstoring</t>
+  </si>
+  <si>
+    <t>Synchronisatie met iBabs niet mogelijk</t>
+  </si>
+  <si>
+    <t>Livestream wordt tijdens de vergadering plotseling onderbroken</t>
+  </si>
+  <si>
+    <t>Er is een dreigende situatie ontstaan</t>
+  </si>
+  <si>
+    <t>Beeldscherm van voorzitter of griffier werkt niet</t>
+  </si>
+  <si>
+    <t>Spreektijd via MultiTimer</t>
+  </si>
+  <si>
+    <t>Vereist een laptop waar MultiTimer is geïntalleerd, handmatig comminicatie over spreektijd</t>
+  </si>
+  <si>
+    <t>Wachter tot terugkoppeling vanaf MMT, dit kan langer duren dan verwacht</t>
+  </si>
+  <si>
+    <t>Nu vergaderen, video wordt later beschikbaar gesteld. Vergadering kan niet live worden gevolgd</t>
+  </si>
+  <si>
+    <t>Indien geen opnames gemaakt kunnen worden kan niet verder vergaderd worden (minimale eis=audio opname)</t>
   </si>
 </sst>
 </file>
@@ -293,7 +365,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -302,6 +374,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -604,10 +677,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -616,7 +689,7 @@
     <col min="2" max="2" width="51.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -624,71 +697,116 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="B7" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="B8" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>7</v>
+      <c r="B9" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -698,16 +816,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="3" max="3" width="49.59765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="56.86328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="82.06640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -715,13 +833,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -732,13 +850,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>82</v>
       </c>
       <c r="E2" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -749,13 +867,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -766,13 +884,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="E4" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -783,13 +901,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>84</v>
       </c>
       <c r="E5" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -800,10 +918,10 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -814,10 +932,10 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -825,13 +943,13 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -839,13 +957,13 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -853,13 +971,13 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -867,13 +985,13 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -881,13 +999,13 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>7</v>
-      </c>
-      <c r="C12" t="s">
-        <v>16</v>
+        <v>4</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="D12" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -895,13 +1013,13 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="D13" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -909,27 +1027,13 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>10</v>
-      </c>
-      <c r="C15" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" t="s">
-        <v>23</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -939,16 +1043,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView topLeftCell="B25" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="11.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="66.1328125" customWidth="1"/>
+    <col min="3" max="3" width="107.265625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="30.59765625" customWidth="1"/>
     <col min="5" max="5" width="22.59765625" customWidth="1"/>
     <col min="6" max="6" width="34.3984375" bestFit="1" customWidth="1"/>
@@ -959,19 +1063,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -982,10 +1086,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -996,10 +1100,10 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1010,10 +1114,10 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1024,10 +1128,10 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1038,13 +1142,13 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1055,125 +1159,351 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="28.5">
-      <c r="A8">
-        <v>7</v>
-      </c>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="B8">
         <v>3</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D8" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" t="s">
-        <v>55</v>
+      <c r="C8" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>3</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="28.5">
+        <v>12</v>
+      </c>
+      <c r="F9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
+        <v>8</v>
+      </c>
       <c r="B10">
         <v>3</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="28.5">
-      <c r="A11">
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="28.5">
+      <c r="A12">
         <v>9</v>
-      </c>
-      <c r="B11">
-        <v>4</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12">
-        <v>10</v>
       </c>
       <c r="B12">
         <v>4</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>60</v>
+      <c r="C12" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="D12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="28.5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13">
         <v>4</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>58</v>
+      <c r="C13" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="D13" t="s">
-        <v>38</v>
-      </c>
-      <c r="F13" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="28.5">
       <c r="A14">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14">
         <v>4</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="D14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="28.5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15">
         <v>4</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="D15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="28.5">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16">
+        <v>4</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="28.5">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17">
+        <v>5</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="42.75">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="B18">
+        <v>6</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>38</v>
+      </c>
+      <c r="D18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19">
+        <v>7</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <v>17</v>
+      </c>
+      <c r="B20">
+        <v>7</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="42.75">
+      <c r="A21">
+        <v>18</v>
+      </c>
+      <c r="B21">
+        <v>8</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22">
+        <v>19</v>
+      </c>
+      <c r="B22">
+        <v>9</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23">
+        <v>20</v>
+      </c>
+      <c r="B23">
+        <v>9</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24">
+        <v>21</v>
+      </c>
+      <c r="B24">
+        <v>9</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25">
+        <v>22</v>
+      </c>
+      <c r="B25">
+        <v>9</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26">
+        <v>23</v>
+      </c>
+      <c r="B26">
+        <v>10</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27">
+        <v>24</v>
+      </c>
+      <c r="B27">
+        <v>10</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28">
+        <v>25</v>
+      </c>
+      <c r="B28">
+        <v>11</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29">
+        <v>26</v>
+      </c>
+      <c r="B29">
+        <v>12</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30">
+        <v>27</v>
+      </c>
+      <c r="B30">
+        <v>12</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D30" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31">
+        <v>28</v>
+      </c>
+      <c r="B31">
+        <v>12</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D31" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32">
+        <v>29</v>
+      </c>
+      <c r="B32">
+        <v>12</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/public/standaard_excel.xlsx
+++ b/public/standaard_excel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rosas\Desktop\2025\prjectapp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rotterdam-my.sharepoint.com/personal/157294_rotterdam_nl/Documents/2025/Belangrijke docs/Protocollen/Naar app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89C2451D-7DA0-46D8-8BFF-0C596089AC02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="40" documentId="13_ncr:1_{89C2451D-7DA0-46D8-8BFF-0C596089AC02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8A0E2444-E41A-448B-980F-78608F6146A0}"/>
   <bookViews>
-    <workbookView xWindow="1148" yWindow="218" windowWidth="18524" windowHeight="8189" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11445" yWindow="1485" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Incidenten" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="88">
   <si>
     <t>ID</t>
   </si>
@@ -54,9 +54,6 @@
     <t>Via handmatige camera's sturing</t>
   </si>
   <si>
-    <t>Alleen indien MMT is beschikbaar</t>
-  </si>
-  <si>
     <t>ok</t>
   </si>
   <si>
@@ -69,15 +66,9 @@
     <t>MMT</t>
   </si>
   <si>
-    <t>Bel Company Webcast</t>
-  </si>
-  <si>
     <t>Informeer (cie)griffier dat er geen livestream zal zijn</t>
   </si>
   <si>
-    <t xml:space="preserve">Controleer MVI opname: in MVI, tab Start, kijk of de camerera zichtbaar is </t>
-  </si>
-  <si>
     <t>Meld het probleem rechtreeks aan Company Webcast</t>
   </si>
   <si>
@@ -90,12 +81,6 @@
     <t>recorderTabStart.png</t>
   </si>
   <si>
-    <t>Meld het probleem aan team Multimedia, volgens protocol</t>
-  </si>
-  <si>
-    <t>Bel een van de medewerkers van MMT</t>
-  </si>
-  <si>
     <t>Secretarris</t>
   </si>
   <si>
@@ -105,19 +90,7 @@
     <t>Secretaris/MMT</t>
   </si>
   <si>
-    <t>Bij geen opname, start opnames handmatig via Crestron</t>
-  </si>
-  <si>
     <t>Handleiding</t>
-  </si>
-  <si>
-    <t>Unknown erro bij DMS import.pdf</t>
-  </si>
-  <si>
-    <t>Verstuurt het video/audio bestand naar CwC, geef daarbij door: CIE-naam+datum+tijdstip+ruimte</t>
-  </si>
-  <si>
-    <t>Indien het video/audio bestand niet compleet is, vraag deze aan Jacot</t>
   </si>
   <si>
     <r>
@@ -143,24 +116,12 @@
     </r>
   </si>
   <si>
-    <t>In Crestron, tab Opname, Start opname in Audiovisueel-recorder (audio opname start dan automatisch)</t>
-  </si>
-  <si>
     <t>Vraagt voor de zekerheid aan Jacot of audio-opname loopt (TASCAM)</t>
   </si>
   <si>
-    <t>Er is geen livestream op het RIS</t>
-  </si>
-  <si>
     <t>Deelnemers worden niet optimaal in beeld gebracht</t>
   </si>
   <si>
-    <t>In MVI, tab Camera met de pijlen de camera bewegen om de deelnemer goed in beeld te krijgen</t>
-  </si>
-  <si>
-    <t>Verhuis de deelnemer naar een andere plaats in de zaal (lege plek/katheder/plek wethouder). De twee plekken rechtsachter in de raadzaal zijn ingesteld voor mensen die zittend moeten praten</t>
-  </si>
-  <si>
     <t xml:space="preserve">Via joystick de overzichtcamera de hele zaal tonen of </t>
   </si>
   <si>
@@ -170,9 +131,6 @@
     <t>Sprekers zijn niet goed te horen of te verstaan</t>
   </si>
   <si>
-    <t>Indien geen lege plek meer, moet deelnemer om de beurt praten via dezelfde microfoonpost</t>
-  </si>
-  <si>
     <t>Indien meerdere microfoonposten defect is iemand nodig om steeds de microfoons langs te brengen</t>
   </si>
   <si>
@@ -251,9 +209,6 @@
     <t>De afspraak is dat de stemmingen niet worden verwerkt, deze worden wel in de notulen opgenomen</t>
   </si>
   <si>
-    <t>Publiek via iBabs informeren dat de webcast later wordt geplaatst</t>
-  </si>
-  <si>
     <t>Griffier</t>
   </si>
   <si>
@@ -290,20 +245,154 @@
     <t>Vereist een laptop waar MultiTimer is geïntalleerd, handmatig comminicatie over spreektijd</t>
   </si>
   <si>
-    <t>Wachter tot terugkoppeling vanaf MMT, dit kan langer duren dan verwacht</t>
-  </si>
-  <si>
-    <t>Nu vergaderen, video wordt later beschikbaar gesteld. Vergadering kan niet live worden gevolgd</t>
-  </si>
-  <si>
-    <t>Indien geen opnames gemaakt kunnen worden kan niet verder vergaderd worden (minimale eis=audio opname)</t>
+    <t>Meld het probleem aan team Multimedia, volgens het protocol</t>
+  </si>
+  <si>
+    <t>Vergadering is gestart maar er is geen livestream op het RIS</t>
+  </si>
+  <si>
+    <t>Wachter op terugkoppeling van MMT, dit kan langer duren dan verwacht</t>
+  </si>
+  <si>
+    <t>Bel Company Webcast en meld het probleem</t>
+  </si>
+  <si>
+    <t>MMT koppelt terug</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bel een van de medewerkers van MMT en meld het probleem </t>
+  </si>
+  <si>
+    <t>Vergadering kan niet live worden gevolgd op het RIS. Er mag vergaderd worden, video wordt later beschikbaar gesteld</t>
+  </si>
+  <si>
+    <t>Bestanden beheren van vergaderingen.pdf</t>
+  </si>
+  <si>
+    <t>Indien geen lege plek meer is, moet deelnemer om de beurt inloggen</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Na de vergadering: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Indien het video/audio bestand niet compleet is, vraag het complete bestand aan Jacot</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Na de vergadering</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Verstuurt het video/audio bestand naar CwC, geef daarbij door: CIE-naam+datum+tijdstip+ruimte</t>
+    </r>
+  </si>
+  <si>
+    <t>In Crestron, tab Opname, 'Start opname in Audiovisueel-recorder' (audio opname start dan automatisch)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Na de vergadering:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Indien het video/audio bestand niet compleet is, vraag het complete bestand aan Jacot</t>
+    </r>
+  </si>
+  <si>
+    <t>Bij geen automatische opnames: Via Crestron de opnames handmatig starten</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Let op:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Indien geen opnames gemaakt kunnen worden kan niet verder vergaderd worden (minimale eis=audio opname)</t>
+    </r>
+  </si>
+  <si>
+    <t>Via iBabs, publiek informeren dat de webcast later wordt geplaatst</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Controleer MVI opname: in MVI, tab 'Start', kijk of de camerera zichtbaar is </t>
+  </si>
+  <si>
+    <t>In MVI, tabblad 'Camera' de pijlen gebruiken om de camera zo te positioneren dat de deelnemer goed zichtbaar is</t>
+  </si>
+  <si>
+    <t>Verhuis de deelnemer naar een andere plaats in de zaal (lege plek/katheder/plek wethouder). Houd rekening mee dat de twee plekken rechtsachter in de raadzaal zijn ingesteld voor mensen die zittend moeten praten</t>
+  </si>
+  <si>
+    <t>Vereist aanwezigheid MMT</t>
+  </si>
+  <si>
+    <t>Indien geen lege plek meer is, moet de deelnemer om de beurt inloggen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -328,6 +417,14 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Bolder"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -680,16 +777,16 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.3984375" customWidth="1"/>
-    <col min="2" max="2" width="51.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.42578125" customWidth="1"/>
+    <col min="2" max="2" width="51.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -697,116 +794,116 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -819,16 +916,16 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="49.59765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="82.06640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="55.7109375" customWidth="1"/>
+    <col min="4" max="4" width="82" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -842,7 +939,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -850,16 +947,16 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="D2" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -867,16 +964,16 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -887,13 +984,13 @@
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -901,16 +998,16 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>80</v>
       </c>
       <c r="D5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -921,10 +1018,10 @@
         <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -934,11 +1031,14 @@
       <c r="C7" t="s">
         <v>8</v>
       </c>
+      <c r="D7" t="s">
+        <v>87</v>
+      </c>
       <c r="E7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -949,10 +1049,10 @@
         <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -963,10 +1063,10 @@
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -974,13 +1074,13 @@
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -988,13 +1088,13 @@
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1002,13 +1102,13 @@
         <v>4</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="D12" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1016,13 +1116,13 @@
         <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="D13" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1030,10 +1130,10 @@
         <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="D14" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1043,22 +1143,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView topLeftCell="B25" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="107.265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.59765625" customWidth="1"/>
-    <col min="5" max="5" width="22.59765625" customWidth="1"/>
-    <col min="6" max="6" width="34.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="107.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.5703125" customWidth="1"/>
+    <col min="5" max="5" width="22.5703125" customWidth="1"/>
+    <col min="6" max="6" width="34.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1072,13 +1172,13 @@
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1086,13 +1186,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1100,41 +1200,41 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1142,16 +1242,13 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1159,351 +1256,374 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>83</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>19</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
       <c r="B8">
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>3</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="C9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>3</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="28.5">
+        <v>11</v>
+      </c>
+      <c r="F10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
       <c r="B11">
         <v>3</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="D11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="28.5">
-      <c r="A12">
-        <v>9</v>
-      </c>
-      <c r="B12">
-        <v>4</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13">
-        <v>10</v>
       </c>
       <c r="B13">
         <v>4</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>34</v>
+      <c r="C13" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="28.5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B14">
         <v>4</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>32</v>
+      <c r="C14" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B15">
         <v>4</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="28.5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B16">
         <v>4</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="D16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="28.5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
         <v>5</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="42.75">
-      <c r="A18">
-        <v>15</v>
-      </c>
-      <c r="B18">
+      <c r="C18" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
         <v>6</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19">
-        <v>16</v>
-      </c>
-      <c r="B19">
-        <v>7</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>39</v>
+      <c r="C19" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="D19" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B20">
         <v>7</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="42.75">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B21">
+        <v>7</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
         <v>8</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D21" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22">
-        <v>19</v>
-      </c>
-      <c r="B22">
-        <v>9</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>48</v>
+      <c r="C22" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="D22" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B23">
         <v>9</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="D23" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B24">
         <v>9</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="D24" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B25">
         <v>9</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="D25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B26">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="D26" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B27">
         <v>10</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="D27" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B28">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="D28" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B29">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="D29" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B30">
         <v>12</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="D30" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B31">
         <v>12</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="D31" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B32">
         <v>12</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>68</v>
+        <v>53</v>
+      </c>
+      <c r="D32" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>12</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/public/standaard_excel.xlsx
+++ b/public/standaard_excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rotterdam-my.sharepoint.com/personal/157294_rotterdam_nl/Documents/2025/Belangrijke docs/Protocollen/Naar app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="40" documentId="13_ncr:1_{89C2451D-7DA0-46D8-8BFF-0C596089AC02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8A0E2444-E41A-448B-980F-78608F6146A0}"/>
+  <xr:revisionPtr revIDLastSave="42" documentId="13_ncr:1_{89C2451D-7DA0-46D8-8BFF-0C596089AC02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CAE547BC-7CE0-4E0A-9416-0FCA7D8B9F53}"/>
   <bookViews>
-    <workbookView xWindow="11445" yWindow="1485" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13680" yWindow="3435" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Incidenten" sheetId="1" r:id="rId1"/>
@@ -131,12 +131,6 @@
     <t>Sprekers zijn niet goed te horen of te verstaan</t>
   </si>
   <si>
-    <t>Indien meerdere microfoonposten defect is iemand nodig om steeds de microfoons langs te brengen</t>
-  </si>
-  <si>
-    <t>Via de ambiance microfoons wordt alles achterin de zaal hoorbaar, zelfs als microfoonposten uit staan</t>
-  </si>
-  <si>
     <t>Gebruik handmicrofoons (eventueel in combinatie met ambiance microfoons)</t>
   </si>
   <si>
@@ -386,6 +380,12 @@
   </si>
   <si>
     <t>Indien geen lege plek meer is, moet de deelnemer om de beurt inloggen</t>
+  </si>
+  <si>
+    <t>Indien meerdere microfoonposten defect zijn, is er iemand nodig om de microfoons steeds langs te brengen</t>
+  </si>
+  <si>
+    <t>Via de ambiance­microfoons is alles achter in de zaal hoorbaar, zelfs wanneer de microfoonposten uitgeschakeld zijn</t>
   </si>
 </sst>
 </file>
@@ -799,7 +799,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -823,7 +823,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -831,7 +831,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -839,7 +839,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -847,7 +847,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -855,7 +855,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -863,7 +863,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -871,7 +871,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -879,7 +879,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -887,7 +887,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -895,7 +895,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -903,7 +903,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -916,7 +916,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -947,10 +947,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" t="s">
         <v>67</v>
-      </c>
-      <c r="D2" t="s">
-        <v>69</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
@@ -984,7 +984,7 @@
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
@@ -998,10 +998,10 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
@@ -1032,7 +1032,7 @@
         <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
@@ -1049,7 +1049,7 @@
         <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1063,7 +1063,7 @@
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1074,10 +1074,10 @@
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1088,10 +1088,10 @@
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>30</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1102,10 +1102,10 @@
         <v>4</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1116,10 +1116,10 @@
         <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1130,10 +1130,10 @@
         <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1186,7 +1186,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
@@ -1214,7 +1214,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
@@ -1228,7 +1228,7 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
@@ -1256,7 +1256,7 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D7" t="s">
         <v>19</v>
@@ -1287,7 +1287,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1304,7 +1304,7 @@
         <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1315,7 +1315,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D11" t="s">
         <v>11</v>
@@ -1329,7 +1329,7 @@
         <v>3</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D12" t="s">
         <v>11</v>
@@ -1343,7 +1343,7 @@
         <v>4</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D13" t="s">
         <v>11</v>
@@ -1385,7 +1385,7 @@
         <v>4</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D16" t="s">
         <v>11</v>
@@ -1399,7 +1399,7 @@
         <v>4</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D17" t="s">
         <v>11</v>
@@ -1413,7 +1413,7 @@
         <v>5</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D18" t="s">
         <v>11</v>
@@ -1427,7 +1427,7 @@
         <v>6</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D19" t="s">
         <v>11</v>
@@ -1469,7 +1469,7 @@
         <v>8</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D22" t="s">
         <v>11</v>
@@ -1483,7 +1483,7 @@
         <v>9</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D23" t="s">
         <v>11</v>
@@ -1497,10 +1497,10 @@
         <v>9</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D24" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1511,10 +1511,10 @@
         <v>9</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D25" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1525,7 +1525,7 @@
         <v>9</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D26" t="s">
         <v>11</v>
@@ -1539,10 +1539,10 @@
         <v>10</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D27" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1553,10 +1553,10 @@
         <v>10</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D28" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1567,7 +1567,7 @@
         <v>11</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D29" t="s">
         <v>11</v>
@@ -1581,10 +1581,10 @@
         <v>12</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D30" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1595,10 +1595,10 @@
         <v>12</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D31" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1609,10 +1609,10 @@
         <v>12</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D32" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -1623,7 +1623,7 @@
         <v>12</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/public/standaard_excel.xlsx
+++ b/public/standaard_excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rotterdam-my.sharepoint.com/personal/157294_rotterdam_nl/Documents/2025/Belangrijke docs/Protocollen/Naar app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="42" documentId="13_ncr:1_{89C2451D-7DA0-46D8-8BFF-0C596089AC02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CAE547BC-7CE0-4E0A-9416-0FCA7D8B9F53}"/>
+  <xr:revisionPtr revIDLastSave="104" documentId="13_ncr:1_{89C2451D-7DA0-46D8-8BFF-0C596089AC02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8040D97D-1DFD-4565-9BE5-B38A6352B00B}"/>
   <bookViews>
-    <workbookView xWindow="13680" yWindow="3435" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2925" yWindow="3450" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Incidenten" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="102">
   <si>
     <t>ID</t>
   </si>
@@ -167,15 +167,6 @@
     <t>MVI systeem valt uit</t>
   </si>
   <si>
-    <t>Besloten' knop werkt niet</t>
-  </si>
-  <si>
-    <t>Er wordt geen opname van de (besloten) vergadering gemaakt</t>
-  </si>
-  <si>
-    <t>Via handen in de lucht stemmers en handmatig tellen</t>
-  </si>
-  <si>
     <t>Check of het stemmingsbestand 'MVI-computer bestand Vote_&lt;Ddatum&gt;_&lt;tijdstip&gt;’ in MVI klopt met de huidige stemresultaten</t>
   </si>
   <si>
@@ -219,9 +210,6 @@
   </si>
   <si>
     <t>Stroomstoring</t>
-  </si>
-  <si>
-    <t>Synchronisatie met iBabs niet mogelijk</t>
   </si>
   <si>
     <t>Livestream wordt tijdens de vergadering plotseling onderbroken</t>
@@ -386,6 +374,60 @@
   </si>
   <si>
     <t>Via de ambiance­microfoons is alles achter in de zaal hoorbaar, zelfs wanneer de microfoonposten uitgeschakeld zijn</t>
+  </si>
+  <si>
+    <t>Als het goed is, is MultiTimer op je laptop geïnstalleerd en is het ingericht voor de fracties.</t>
+  </si>
+  <si>
+    <t>Handleiding MultiTimer.pdf</t>
+  </si>
+  <si>
+    <t>Controleer of de ingestelde tijd klopt, indien niet wijzig het volgens de handleiding</t>
+  </si>
+  <si>
+    <t>Houd de tijd in per fractie via MultiTimer en geeft dit door aan de (cie) griffier via de app</t>
+  </si>
+  <si>
+    <t>Stemmmen via handen in de lucht en handmatig tellen</t>
+  </si>
+  <si>
+    <t>Draait audioopname in Crestron</t>
+  </si>
+  <si>
+    <t>Als de audioopname draait dan kunnen de notulen later worden gemaakt (minimale eis)</t>
+  </si>
+  <si>
+    <t>Eerst openbaar deel afmaken daarna besloten deel opstarten</t>
+  </si>
+  <si>
+    <t>Minimale eis is dat er een audiobestand van gemaakt wordt t.b.v. de notulen</t>
+  </si>
+  <si>
+    <t>In Crestron, tab 'Opname', controleer of de opname draait</t>
+  </si>
+  <si>
+    <t>Draait de opname nog niet, druk dan in hetzelfe tab op de knop 'Start opname in Audiovisueel-recorder (audio opname start dan ook automatisch)</t>
+  </si>
+  <si>
+    <t>Vraag voor de zekerheid aan Jacot of audio-opname loopt (TASCAM)</t>
+  </si>
+  <si>
+    <t>Controleer of de microfoonposten nog werken, zodat mensen zich verstandbaar kunnen maken</t>
+  </si>
+  <si>
+    <t>In overleg met de (cie)griffier, eerst het openbaar deel afmaken dan de vergadering via MVI afsluiten</t>
+  </si>
+  <si>
+    <t>Start het AV-systeem op en start een Reguliere vergadering (microfoons kunnen dan gebruikt worden en er gaat niet naar buiten)</t>
+  </si>
+  <si>
+    <t>In Crestron, tab 'Opname', druk opde knop 'Start opname in Audiovisueel-recorder ((audio opname start dan ook automatisch)</t>
+  </si>
+  <si>
+    <t>Knop 'Besloten' werkt niet, er wordt geen opname gemaakt</t>
+  </si>
+  <si>
+    <t>Geen synchronisatie met iBabs mogelijk</t>
   </si>
 </sst>
 </file>
@@ -774,10 +816,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -799,7 +841,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -823,7 +865,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -831,7 +873,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -839,52 +881,52 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>41</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>42</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>60</v>
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
         <v>58</v>
@@ -892,31 +934,24 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -947,10 +982,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
@@ -984,7 +1019,7 @@
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
@@ -998,10 +1033,10 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
@@ -1032,7 +1067,7 @@
         <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
@@ -1049,7 +1084,7 @@
         <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1063,7 +1098,7 @@
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1077,7 +1112,7 @@
         <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1091,7 +1126,7 @@
         <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1102,10 +1137,10 @@
         <v>4</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D12" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1116,10 +1151,10 @@
         <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="D13" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1130,10 +1165,38 @@
         <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D14" t="s">
-        <v>64</v>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>89</v>
+      </c>
+      <c r="D15" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>91</v>
+      </c>
+      <c r="D16" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1143,10 +1206,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1186,7 +1249,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
@@ -1214,7 +1277,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
@@ -1228,7 +1291,7 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
@@ -1256,7 +1319,7 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D7" t="s">
         <v>19</v>
@@ -1287,7 +1350,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1304,7 +1367,7 @@
         <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1315,7 +1378,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D11" t="s">
         <v>11</v>
@@ -1329,7 +1392,7 @@
         <v>3</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D12" t="s">
         <v>11</v>
@@ -1343,7 +1406,7 @@
         <v>4</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D13" t="s">
         <v>11</v>
@@ -1385,7 +1448,7 @@
         <v>4</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D16" t="s">
         <v>11</v>
@@ -1399,7 +1462,7 @@
         <v>4</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D17" t="s">
         <v>11</v>
@@ -1413,7 +1476,7 @@
         <v>5</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D18" t="s">
         <v>11</v>
@@ -1427,7 +1490,7 @@
         <v>6</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D19" t="s">
         <v>11</v>
@@ -1567,7 +1630,7 @@
         <v>11</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D29" t="s">
         <v>11</v>
@@ -1581,10 +1644,10 @@
         <v>12</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D30" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1595,10 +1658,10 @@
         <v>12</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D31" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1609,13 +1672,13 @@
         <v>12</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D32" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1623,10 +1686,168 @@
         <v>12</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>13</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D34" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>13</v>
+      </c>
+      <c r="C35" t="s">
+        <v>86</v>
+      </c>
+      <c r="D35" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>13</v>
+      </c>
+      <c r="C36" t="s">
+        <v>87</v>
+      </c>
+      <c r="D36" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>14</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D37" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>14</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D38" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>14</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D39" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>14</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D40" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>15</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D41" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>15</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D42" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>15</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D43" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>15</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D44" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/public/standaard_excel.xlsx
+++ b/public/standaard_excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rotterdam-my.sharepoint.com/personal/157294_rotterdam_nl/Documents/2025/Belangrijke docs/Protocollen/Naar app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="104" documentId="13_ncr:1_{89C2451D-7DA0-46D8-8BFF-0C596089AC02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8040D97D-1DFD-4565-9BE5-B38A6352B00B}"/>
+  <xr:revisionPtr revIDLastSave="153" documentId="13_ncr:1_{89C2451D-7DA0-46D8-8BFF-0C596089AC02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FEDD9CDF-8385-49DD-BFBF-DE0E54C60D56}"/>
   <bookViews>
-    <workbookView xWindow="2925" yWindow="3450" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5055" yWindow="480" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Incidenten" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="111">
   <si>
     <t>ID</t>
   </si>
@@ -70,9 +70,6 @@
   </si>
   <si>
     <t>Meld het probleem rechtreeks aan Company Webcast</t>
-  </si>
-  <si>
-    <t>Blijf aan de telefoon totdat het probleem opgelost is</t>
   </si>
   <si>
     <t>AfbeeldingBestand</t>
@@ -227,13 +224,7 @@
     <t>Vereist een laptop waar MultiTimer is geïntalleerd, handmatig comminicatie over spreektijd</t>
   </si>
   <si>
-    <t>Meld het probleem aan team Multimedia, volgens het protocol</t>
-  </si>
-  <si>
     <t>Vergadering is gestart maar er is geen livestream op het RIS</t>
-  </si>
-  <si>
-    <t>Wachter op terugkoppeling van MMT, dit kan langer duren dan verwacht</t>
   </si>
   <si>
     <t>Bel Company Webcast en meld het probleem</t>
@@ -421,13 +412,49 @@
     <t>Start het AV-systeem op en start een Reguliere vergadering (microfoons kunnen dan gebruikt worden en er gaat niet naar buiten)</t>
   </si>
   <si>
-    <t>In Crestron, tab 'Opname', druk opde knop 'Start opname in Audiovisueel-recorder ((audio opname start dan ook automatisch)</t>
-  </si>
-  <si>
-    <t>Knop 'Besloten' werkt niet, er wordt geen opname gemaakt</t>
-  </si>
-  <si>
     <t>Geen synchronisatie met iBabs mogelijk</t>
+  </si>
+  <si>
+    <t>Knop 'Besloten' werkt niet</t>
+  </si>
+  <si>
+    <t>Minimale eis om te kunnen vergaderen is dat er minimaal een audio opname gemaakt wordt</t>
+  </si>
+  <si>
+    <t>Wachter op terugkoppeling van MMT, pas dan andere opties overwegen</t>
+  </si>
+  <si>
+    <t>Start opname handmatig op</t>
+  </si>
+  <si>
+    <t>Volgens protocol: probleem telefonisch melden aan team Multimedia</t>
+  </si>
+  <si>
+    <t>Test, gaat dit goed?</t>
+  </si>
+  <si>
+    <t>MMT neemt contact op met Jacot en koppelt terug</t>
+  </si>
+  <si>
+    <t>Meld probleem rechtsreeks aan Jacot</t>
+  </si>
+  <si>
+    <t>Alleen wanneer MMT niet beschikbaar is</t>
+  </si>
+  <si>
+    <t>Beld het noodnunmer van Jacot en meld het probleem</t>
+  </si>
+  <si>
+    <t>Er wordt geen opname gemaakt, MVI, tab 'Start' en recorder niet zichtbaar</t>
+  </si>
+  <si>
+    <t>In Crestron, tab 'Opname', druk op de knop 'Start opname in Audiovisueel-recorder' ((audio opname start dan ook automatisch)</t>
+  </si>
+  <si>
+    <t>In Crestron, tab 'Opname' druk op de knop 'Start opname in Audiovisueel-recorder' ((audio opname start dan ook automatisch)</t>
+  </si>
+  <si>
+    <t>Bla, bla test</t>
   </si>
 </sst>
 </file>
@@ -816,10 +843,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -841,7 +868,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -849,7 +876,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -857,7 +884,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -865,7 +892,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -873,7 +900,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -881,63 +908,71 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>56</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>40</v>
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -948,10 +983,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -982,10 +1017,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="D2" t="s">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
@@ -1002,7 +1037,7 @@
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>105</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
@@ -1019,7 +1054,7 @@
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
@@ -1033,10 +1068,10 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
@@ -1067,7 +1102,7 @@
         <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
@@ -1084,7 +1119,7 @@
         <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1098,7 +1133,7 @@
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1109,10 +1144,10 @@
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1123,10 +1158,10 @@
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1137,10 +1172,10 @@
         <v>4</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1151,10 +1186,10 @@
         <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1165,10 +1200,10 @@
         <v>5</v>
       </c>
       <c r="C14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" t="s">
         <v>59</v>
-      </c>
-      <c r="D14" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1179,10 +1214,10 @@
         <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D15" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -1193,23 +1228,77 @@
         <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D16" t="s">
-        <v>92</v>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>7</v>
+      </c>
+      <c r="C17" t="s">
+        <v>101</v>
+      </c>
+      <c r="D17" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
+        <v>104</v>
+      </c>
+      <c r="D18" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>7</v>
+      </c>
+      <c r="C19" t="s">
+        <v>100</v>
+      </c>
+      <c r="D19" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48:A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1235,10 +1324,10 @@
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1249,7 +1338,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
@@ -1277,7 +1366,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
@@ -1291,7 +1380,7 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
@@ -1319,13 +1408,13 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1336,10 +1425,10 @@
         <v>3</v>
       </c>
       <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
         <v>20</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1350,7 +1439,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1361,13 +1450,13 @@
         <v>3</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D10" t="s">
         <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1378,7 +1467,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D11" t="s">
         <v>11</v>
@@ -1392,7 +1481,7 @@
         <v>3</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D12" t="s">
         <v>11</v>
@@ -1406,7 +1495,7 @@
         <v>4</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D13" t="s">
         <v>11</v>
@@ -1420,10 +1509,10 @@
         <v>4</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1434,7 +1523,7 @@
         <v>4</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D15" t="s">
         <v>11</v>
@@ -1448,7 +1537,7 @@
         <v>4</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D16" t="s">
         <v>11</v>
@@ -1462,7 +1551,7 @@
         <v>4</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D17" t="s">
         <v>11</v>
@@ -1476,7 +1565,7 @@
         <v>5</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D18" t="s">
         <v>11</v>
@@ -1490,7 +1579,7 @@
         <v>6</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D19" t="s">
         <v>11</v>
@@ -1504,7 +1593,7 @@
         <v>7</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D20" t="s">
         <v>13</v>
@@ -1518,7 +1607,7 @@
         <v>7</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
         <v>13</v>
@@ -1532,7 +1621,7 @@
         <v>8</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D22" t="s">
         <v>11</v>
@@ -1546,7 +1635,7 @@
         <v>9</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D23" t="s">
         <v>11</v>
@@ -1560,10 +1649,10 @@
         <v>9</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1574,10 +1663,10 @@
         <v>9</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1588,7 +1677,7 @@
         <v>9</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D26" t="s">
         <v>11</v>
@@ -1602,10 +1691,10 @@
         <v>10</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1616,10 +1705,10 @@
         <v>10</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1630,7 +1719,7 @@
         <v>11</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D29" t="s">
         <v>11</v>
@@ -1644,10 +1733,10 @@
         <v>12</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1658,10 +1747,10 @@
         <v>12</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1672,10 +1761,10 @@
         <v>12</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1686,7 +1775,7 @@
         <v>12</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1697,13 +1786,13 @@
         <v>13</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D34" t="s">
         <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1714,7 +1803,7 @@
         <v>13</v>
       </c>
       <c r="C35" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D35" t="s">
         <v>11</v>
@@ -1728,7 +1817,7 @@
         <v>13</v>
       </c>
       <c r="C36" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D36" t="s">
         <v>11</v>
@@ -1742,7 +1831,7 @@
         <v>14</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D37" t="s">
         <v>11</v>
@@ -1756,10 +1845,10 @@
         <v>14</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D38" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1770,10 +1859,10 @@
         <v>14</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1784,10 +1873,10 @@
         <v>14</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D40" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1798,7 +1887,7 @@
         <v>15</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D41" t="s">
         <v>11</v>
@@ -1812,7 +1901,7 @@
         <v>15</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D42" t="s">
         <v>11</v>
@@ -1826,7 +1915,7 @@
         <v>15</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="D43" t="s">
         <v>11</v>
@@ -1840,10 +1929,91 @@
         <v>15</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D44" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>16</v>
+      </c>
+      <c r="C45" t="s">
+        <v>63</v>
+      </c>
+      <c r="D45" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>16</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D46" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>17</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>18</v>
+      </c>
+      <c r="C48" t="s">
+        <v>109</v>
+      </c>
+      <c r="D48" t="s">
+        <v>18</v>
+      </c>
+      <c r="E48" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>18</v>
+      </c>
+      <c r="C49" t="s">
+        <v>19</v>
+      </c>
+      <c r="D49" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>19</v>
+      </c>
+      <c r="C50" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/public/standaard_excel.xlsx
+++ b/public/standaard_excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rotterdam-my.sharepoint.com/personal/157294_rotterdam_nl/Documents/2025/Belangrijke docs/Protocollen/Naar app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="153" documentId="13_ncr:1_{89C2451D-7DA0-46D8-8BFF-0C596089AC02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FEDD9CDF-8385-49DD-BFBF-DE0E54C60D56}"/>
+  <xr:revisionPtr revIDLastSave="254" documentId="13_ncr:1_{89C2451D-7DA0-46D8-8BFF-0C596089AC02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6BB76B11-E31A-42B1-85AE-593E20C55B89}"/>
   <bookViews>
     <workbookView xWindow="5055" yWindow="480" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="126">
   <si>
     <t>ID</t>
   </si>
@@ -52,9 +52,6 @@
   </si>
   <si>
     <t>Via handmatige camera's sturing</t>
-  </si>
-  <si>
-    <t>ok</t>
   </si>
   <si>
     <t>Secretaris</t>
@@ -355,9 +352,6 @@
     <t>Verhuis de deelnemer naar een andere plaats in de zaal (lege plek/katheder/plek wethouder). Houd rekening mee dat de twee plekken rechtsachter in de raadzaal zijn ingesteld voor mensen die zittend moeten praten</t>
   </si>
   <si>
-    <t>Vereist aanwezigheid MMT</t>
-  </si>
-  <si>
     <t>Indien geen lege plek meer is, moet de deelnemer om de beurt inloggen</t>
   </si>
   <si>
@@ -412,9 +406,6 @@
     <t>Start het AV-systeem op en start een Reguliere vergadering (microfoons kunnen dan gebruikt worden en er gaat niet naar buiten)</t>
   </si>
   <si>
-    <t>Geen synchronisatie met iBabs mogelijk</t>
-  </si>
-  <si>
     <t>Knop 'Besloten' werkt niet</t>
   </si>
   <si>
@@ -430,9 +421,6 @@
     <t>Volgens protocol: probleem telefonisch melden aan team Multimedia</t>
   </si>
   <si>
-    <t>Test, gaat dit goed?</t>
-  </si>
-  <si>
     <t>MMT neemt contact op met Jacot en koppelt terug</t>
   </si>
   <si>
@@ -445,16 +433,73 @@
     <t>Beld het noodnunmer van Jacot en meld het probleem</t>
   </si>
   <si>
-    <t>Er wordt geen opname gemaakt, MVI, tab 'Start' en recorder niet zichtbaar</t>
-  </si>
-  <si>
     <t>In Crestron, tab 'Opname', druk op de knop 'Start opname in Audiovisueel-recorder' ((audio opname start dan ook automatisch)</t>
   </si>
   <si>
     <t>In Crestron, tab 'Opname' druk op de knop 'Start opname in Audiovisueel-recorder' ((audio opname start dan ook automatisch)</t>
   </si>
   <si>
-    <t>Bla, bla test</t>
+    <t>Bla, bla test gaat dit zo goed werken?</t>
+  </si>
+  <si>
+    <t>Er wordt geen opname gemaakt (in MVI, tab 'Start' is recorder niet zichtbaar)</t>
+  </si>
+  <si>
+    <t>Vereist aanwezigheid MMT. De beschikbare camera's geven dan een minimaal overzicht</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Via iBabs, publiek informeren dat er in aagepaste vorm vergaderd wordt </t>
+  </si>
+  <si>
+    <t>Geen synchronisatie met iBabs mogelijk, de knop 'Sync met iBabs' geeft een foutmelding</t>
+  </si>
+  <si>
+    <t>Geen synchronisatie met iBabs mogelijk, de knop 'Resync' werkt niet</t>
+  </si>
+  <si>
+    <t>Excel-sjabloon voor de vergadering verwerken en uploaden in MVI</t>
+  </si>
+  <si>
+    <t>Let op: er wordt in dit geval geen metadata naar iBabs doorgestuurd (agendapunten tbv indexatie en stemmingsresultaten)</t>
+  </si>
+  <si>
+    <t>Op de MVI-PC in map Bureaublad/Excel/Sjablonen de sjablonen voor alle agendatypes</t>
+  </si>
+  <si>
+    <t>Kopieer het juiste sjabloon naar de map Bureaublad/Excel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hernoem het desnoods naar een betere naam en open het </t>
+  </si>
+  <si>
+    <t>Verwerk het volgens de handleiding, de sjablonen bevatten al extra agendapunten aangezien na het inladen geen extra agendapunten kunnen worden toegevoegd</t>
+  </si>
+  <si>
+    <t>LET OP: Tijdens de vergadering is het niet mogelijk het excel bestand te verwerken</t>
+  </si>
+  <si>
+    <t>Excel bestand bewerken-V1.pdf</t>
+  </si>
+  <si>
+    <t>Ga in MVI naar tab ‘Start’ klik vervolgens onderaan op ‘Excel laden'</t>
+  </si>
+  <si>
+    <t>Kies het zojuist bewerkte Excel bestand om het in MVI te laden</t>
+  </si>
+  <si>
+    <t>Ga verder met het voorbereiden van de vergadering in MVI</t>
+  </si>
+  <si>
+    <t>Bel CwC en vraag ze de stream handmatig te sarten via Online Manager. Team Informatiemanagement kan dit eventueel ook doen</t>
+  </si>
+  <si>
+    <t>Na de vergadering: ga op de MVI computer naar de map ‘MVI opname’ en zoek naar het tekstbestand met &lt;datum_tijdstip&gt;. Het bestand bevat de sprekersmarkering van de vergadering</t>
+  </si>
+  <si>
+    <t>Na de vergadering: verstuur het bestand naar CwC. Geef daarbij door: CIE-naam+datum+tijdstip+ruimte</t>
+  </si>
+  <si>
+    <t>LET OP:  bel Jacot met de vraag of ze de database kunnen legen zodat de volgende vergadering gesynchroniseerd kan worden</t>
   </si>
 </sst>
 </file>
@@ -843,10 +888,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -868,7 +913,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -876,7 +921,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -884,7 +929,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -892,7 +937,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -900,7 +945,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -908,7 +953,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -916,7 +961,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -924,7 +969,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -932,15 +977,15 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>55</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>39</v>
+      <c r="B11" s="4" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -948,7 +993,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -956,7 +1001,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -964,7 +1009,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -972,7 +1017,15 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>56</v>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -983,10 +1036,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:A20"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -995,7 +1048,7 @@
     <col min="4" max="4" width="82" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1009,7 +1062,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1017,16 +1070,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1034,16 +1084,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>105</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1054,13 +1101,10 @@
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1068,16 +1112,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" t="s">
         <v>71</v>
       </c>
-      <c r="D5" t="s">
-        <v>72</v>
-      </c>
-      <c r="E5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1087,11 +1128,8 @@
       <c r="C6" t="s">
         <v>7</v>
       </c>
-      <c r="E6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1102,13 +1140,10 @@
         <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>78</v>
-      </c>
-      <c r="E7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1119,10 +1154,10 @@
         <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1133,10 +1168,10 @@
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1144,13 +1179,13 @@
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1158,13 +1193,13 @@
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1172,13 +1207,13 @@
         <v>4</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1186,13 +1221,13 @@
         <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1200,13 +1235,13 @@
         <v>5</v>
       </c>
       <c r="C14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" t="s">
         <v>58</v>
       </c>
-      <c r="D14" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1214,13 +1249,13 @@
         <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D15" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1228,10 +1263,10 @@
         <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1242,10 +1277,10 @@
         <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D17" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1256,10 +1291,10 @@
         <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D18" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1270,10 +1305,10 @@
         <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D19" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1281,10 +1316,41 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>102</v>
+        <v>98</v>
+      </c>
+      <c r="D20" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>100</v>
+      </c>
+      <c r="D21" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>8</v>
+      </c>
+      <c r="C22" t="s">
+        <v>111</v>
+      </c>
+      <c r="D22" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -1295,10 +1361,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48:A50"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46:A66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1324,10 +1390,10 @@
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1338,10 +1404,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1352,10 +1418,10 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
         <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1366,10 +1432,10 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1380,10 +1446,10 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1394,10 +1460,10 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1408,13 +1474,13 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1425,10 +1491,10 @@
         <v>3</v>
       </c>
       <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
         <v>19</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1439,7 +1505,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1450,13 +1516,13 @@
         <v>3</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1467,10 +1533,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1481,10 +1547,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1495,10 +1561,10 @@
         <v>4</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1509,10 +1575,10 @@
         <v>4</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1523,10 +1589,10 @@
         <v>4</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1537,10 +1603,10 @@
         <v>4</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1551,10 +1617,10 @@
         <v>4</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1565,10 +1631,10 @@
         <v>5</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1579,10 +1645,10 @@
         <v>6</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1593,10 +1659,10 @@
         <v>7</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1607,38 +1673,38 @@
         <v>7</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22">
-        <v>8</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>30</v>
+        <v>7</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>108</v>
       </c>
       <c r="D22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23">
-        <v>9</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>31</v>
+        <v>8</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="D23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -1649,10 +1715,10 @@
         <v>9</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D24" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1663,10 +1729,10 @@
         <v>9</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D25" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1677,10 +1743,10 @@
         <v>9</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D26" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1688,13 +1754,13 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D27" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1705,10 +1771,10 @@
         <v>10</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1716,13 +1782,13 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D29" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1730,13 +1796,13 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D30" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1747,10 +1813,10 @@
         <v>12</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D31" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1761,10 +1827,10 @@
         <v>12</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1775,7 +1841,10 @@
         <v>12</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
+      </c>
+      <c r="D33" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1783,16 +1852,10 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D34" t="s">
-        <v>11</v>
-      </c>
-      <c r="F34" t="s">
-        <v>82</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1802,11 +1865,14 @@
       <c r="B35">
         <v>13</v>
       </c>
-      <c r="C35" t="s">
-        <v>83</v>
+      <c r="C35" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="D35" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="F35" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1817,10 +1883,10 @@
         <v>13</v>
       </c>
       <c r="C36" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D36" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1828,13 +1894,13 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>14</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>93</v>
+        <v>13</v>
+      </c>
+      <c r="C37" t="s">
+        <v>82</v>
       </c>
       <c r="D37" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1845,10 +1911,10 @@
         <v>14</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D38" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1859,10 +1925,10 @@
         <v>14</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D39" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1873,10 +1939,10 @@
         <v>14</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D40" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1884,13 +1950,13 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D41" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -1901,10 +1967,10 @@
         <v>15</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D42" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -1915,10 +1981,10 @@
         <v>15</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="D43" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -1929,10 +1995,10 @@
         <v>15</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="D44" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -1940,13 +2006,13 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>16</v>
-      </c>
-      <c r="C45" t="s">
-        <v>63</v>
+        <v>15</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>90</v>
       </c>
       <c r="D45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -1956,11 +2022,11 @@
       <c r="B46">
         <v>16</v>
       </c>
-      <c r="C46" s="3" t="s">
-        <v>103</v>
+      <c r="C46" t="s">
+        <v>62</v>
       </c>
       <c r="D46" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -1968,10 +2034,13 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>106</v>
+        <v>99</v>
+      </c>
+      <c r="D47" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -1979,19 +2048,16 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>18</v>
-      </c>
-      <c r="C48" t="s">
-        <v>109</v>
+        <v>17</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="D48" t="s">
-        <v>18</v>
-      </c>
-      <c r="E48" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1999,21 +2065,248 @@
         <v>18</v>
       </c>
       <c r="C49" t="s">
-        <v>19</v>
+        <v>104</v>
       </c>
       <c r="D49" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50">
+        <v>18</v>
+      </c>
+      <c r="C50" t="s">
+        <v>18</v>
+      </c>
+      <c r="D50" t="s">
         <v>19</v>
       </c>
-      <c r="C50" t="s">
-        <v>110</v>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>19</v>
+      </c>
+      <c r="C51" t="s">
+        <v>62</v>
+      </c>
+      <c r="D51" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>19</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D52" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>20</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D53" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>21</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D54" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>21</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D55" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>21</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D56" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>21</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D57" t="s">
+        <v>10</v>
+      </c>
+      <c r="F57" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>21</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D58" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>21</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D59" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>21</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D60" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>21</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D61" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>21</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D62" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>21</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D63" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>21</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D64" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>21</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D65" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/public/standaard_excel.xlsx
+++ b/public/standaard_excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rotterdam-my.sharepoint.com/personal/157294_rotterdam_nl/Documents/2025/Belangrijke docs/Protocollen/Naar app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="254" documentId="13_ncr:1_{89C2451D-7DA0-46D8-8BFF-0C596089AC02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6BB76B11-E31A-42B1-85AE-593E20C55B89}"/>
+  <xr:revisionPtr revIDLastSave="353" documentId="13_ncr:1_{89C2451D-7DA0-46D8-8BFF-0C596089AC02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3A048980-CB04-4758-B3B3-B4F35E314151}"/>
   <bookViews>
     <workbookView xWindow="5055" yWindow="480" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="147">
   <si>
     <t>ID</t>
   </si>
@@ -439,9 +439,6 @@
     <t>In Crestron, tab 'Opname' druk op de knop 'Start opname in Audiovisueel-recorder' ((audio opname start dan ook automatisch)</t>
   </si>
   <si>
-    <t>Bla, bla test gaat dit zo goed werken?</t>
-  </si>
-  <si>
     <t>Er wordt geen opname gemaakt (in MVI, tab 'Start' is recorder niet zichtbaar)</t>
   </si>
   <si>
@@ -499,14 +496,80 @@
     <t>Na de vergadering: verstuur het bestand naar CwC. Geef daarbij door: CIE-naam+datum+tijdstip+ruimte</t>
   </si>
   <si>
-    <t>LET OP:  bel Jacot met de vraag of ze de database kunnen legen zodat de volgende vergadering gesynchroniseerd kan worden</t>
+    <t>Na de vergadering:  bel Jacot met de vraag of ze de database kunnen legen zodat de volgende vergadering gesynchroniseerd kan worden</t>
+  </si>
+  <si>
+    <t>Agendawijzigingen rechstreeks in MVI aanbrengen</t>
+  </si>
+  <si>
+    <t>Gewijzigde agendapunten zijn zichtbaar in de stream, maar er kunnen in MVI geen agendapunten worden toegevoegd of verwijderd</t>
+  </si>
+  <si>
+    <t>Ga in MVI naar tab 'Agenda' en breng rechtstreeks in MVI de nodig aanpassingen aan.</t>
+  </si>
+  <si>
+    <t>Gaat het om een agendapunt: dubbelklik op de tekst, er verschijnt een klein venster waar je de tekst kunt aanpassen</t>
+  </si>
+  <si>
+    <t>Gaat het om motie waarop gestemd moet worden: ga in de stemmingsvenster en klik op het plusje en voeg de motie toe</t>
+  </si>
+  <si>
+    <t>NOG TE CONTROLEREN WAT WORDT DOORGEGEVEN AAN IBABS NA EEN HADMATIGE AANPASSING IN MVI)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kunnen moties echt worden toegevoegd? Of alleen </t>
+  </si>
+  <si>
+    <t>Bij één defect monitor: kijkt voorzitter en (cie)griffier naar één monitor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In dit geval moet de muis indien nodig gedeeld worden </t>
+  </si>
+  <si>
+    <t>Bij twee defecte monitoren: Team Multimedia vervangt een monitor</t>
+  </si>
+  <si>
+    <t>Ondersteuning neemt bediening MVI over en communiceert via de app met (cie)griffier</t>
+  </si>
+  <si>
+    <t>Als het lukt dan is er één werkend monitor, de muis wordt indien nodig gedeeld door voorzitten en (cie)griffier</t>
+  </si>
+  <si>
+    <t>Alle belangrijke momenten communiceren via Whatsapp</t>
+  </si>
+  <si>
+    <t>MMT probeert een of beide monitoren aan te repareren</t>
+  </si>
+  <si>
+    <t>De voorzitter of de griffier kijkt naar het ander scherm dat nog steeds werkt</t>
+  </si>
+  <si>
+    <t>Wanneer alleen het scherm van de voorzitter nog operationeel is, dan indien nodig pakt de griffier de bijbehorende muis en markeert de agendapunten</t>
+  </si>
+  <si>
+    <t>MMT pakt een van de monitoren van de testruimte en koppelt op de plek van de defecte monitor</t>
+  </si>
+  <si>
+    <t>Raads- of commissieondersteuning markeert de agendapunten</t>
+  </si>
+  <si>
+    <t>Spreektijden en stemmingsresultaten worden via Whatsapp doorgegeven aan de (cie)griffier</t>
+  </si>
+  <si>
+    <t>Vergadering gaat door zonder livestream</t>
+  </si>
+  <si>
+    <t>Bel een van de medewerkers van MMT en meld het probleem, geeft door dat een mogelijke oorzaak zou kunnen zijn een encoder crash of een internet storing</t>
+  </si>
+  <si>
+    <t>Bel Company Webcast en meld het probleem, je mag daarbij melden dat dat een mogelijke oorzaak zou kunnen zijn een encoder crash of een internet storing</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -539,6 +602,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Bolder"/>
     </font>
   </fonts>
   <fills count="2">
@@ -576,7 +644,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -586,6 +654,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -891,7 +960,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -961,7 +1030,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -969,7 +1038,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -977,7 +1046,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -1036,10 +1105,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:A22"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1154,7 +1223,7 @@
         <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1347,10 +1416,119 @@
         <v>8</v>
       </c>
       <c r="C22" t="s">
+        <v>110</v>
+      </c>
+      <c r="D22" t="s">
         <v>111</v>
       </c>
-      <c r="D22" t="s">
-        <v>112</v>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>9</v>
+      </c>
+      <c r="C23" t="s">
+        <v>125</v>
+      </c>
+      <c r="D23" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>10</v>
+      </c>
+      <c r="C24" t="s">
+        <v>98</v>
+      </c>
+      <c r="D24" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>10</v>
+      </c>
+      <c r="C25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>10</v>
+      </c>
+      <c r="C26" t="s">
+        <v>144</v>
+      </c>
+      <c r="D26" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>11</v>
+      </c>
+      <c r="C27" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>11</v>
+      </c>
+      <c r="C28" t="s">
+        <v>132</v>
+      </c>
+      <c r="D28" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>11</v>
+      </c>
+      <c r="C29" t="s">
+        <v>134</v>
+      </c>
+      <c r="D29" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>11</v>
+      </c>
+      <c r="C30" t="s">
+        <v>135</v>
+      </c>
+      <c r="D30" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -1361,10 +1539,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F66"/>
+  <dimension ref="A1:G85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46:A66"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="A66" sqref="A66:A85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1687,7 +1865,7 @@
         <v>7</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D22" t="s">
         <v>10</v>
@@ -2135,7 +2313,7 @@
         <v>21</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D54" t="s">
         <v>10</v>
@@ -2149,7 +2327,7 @@
         <v>21</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D55" t="s">
         <v>10</v>
@@ -2163,7 +2341,7 @@
         <v>21</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D56" t="s">
         <v>10</v>
@@ -2177,13 +2355,13 @@
         <v>21</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D57" t="s">
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -2194,7 +2372,7 @@
         <v>21</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D58" t="s">
         <v>10</v>
@@ -2208,7 +2386,7 @@
         <v>21</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D59" t="s">
         <v>10</v>
@@ -2222,7 +2400,7 @@
         <v>21</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D60" t="s">
         <v>10</v>
@@ -2236,7 +2414,7 @@
         <v>21</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D61" t="s">
         <v>10</v>
@@ -2250,7 +2428,7 @@
         <v>21</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D62" t="s">
         <v>10</v>
@@ -2264,7 +2442,7 @@
         <v>21</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D63" t="s">
         <v>10</v>
@@ -2278,13 +2456,13 @@
         <v>21</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D64" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -2292,21 +2470,296 @@
         <v>21</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D65" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66">
-        <v>1</v>
-      </c>
-      <c r="C66" t="s">
-        <v>105</v>
+        <v>22</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D66" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>22</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D67" t="s">
+        <v>10</v>
+      </c>
+      <c r="G67" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>22</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D68" t="s">
+        <v>10</v>
+      </c>
+      <c r="G68" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>23</v>
+      </c>
+      <c r="C69" t="s">
+        <v>145</v>
+      </c>
+      <c r="D69" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>23</v>
+      </c>
+      <c r="C70" t="s">
+        <v>11</v>
+      </c>
+      <c r="D70" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>24</v>
+      </c>
+      <c r="C71" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>25</v>
+      </c>
+      <c r="C72" t="s">
+        <v>13</v>
+      </c>
+      <c r="D72" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>25</v>
+      </c>
+      <c r="C73" t="s">
+        <v>73</v>
+      </c>
+      <c r="D73" t="s">
+        <v>17</v>
+      </c>
+      <c r="E73" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>25</v>
+      </c>
+      <c r="C74" t="s">
+        <v>18</v>
+      </c>
+      <c r="D74" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>25</v>
+      </c>
+      <c r="C75" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>25</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D76" t="s">
+        <v>10</v>
+      </c>
+      <c r="F76" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>25</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D77" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>25</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D78" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>26</v>
+      </c>
+      <c r="C79" t="s">
+        <v>62</v>
+      </c>
+      <c r="D79" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>26</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D80" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>27</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D81" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>27</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D82" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>28</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D83" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>29</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D84" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>29</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D85" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/public/standaard_excel.xlsx
+++ b/public/standaard_excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rotterdam-my.sharepoint.com/personal/157294_rotterdam_nl/Documents/2025/Belangrijke docs/Protocollen/Naar app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="353" documentId="13_ncr:1_{89C2451D-7DA0-46D8-8BFF-0C596089AC02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3A048980-CB04-4758-B3B3-B4F35E314151}"/>
+  <xr:revisionPtr revIDLastSave="402" documentId="13_ncr:1_{89C2451D-7DA0-46D8-8BFF-0C596089AC02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{21E1DF86-1AF5-4200-9F4E-A4367DB33AF4}"/>
   <bookViews>
     <workbookView xWindow="5055" yWindow="480" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="164">
   <si>
     <t>ID</t>
   </si>
@@ -563,6 +563,57 @@
   </si>
   <si>
     <t>Bel Company Webcast en meld het probleem, je mag daarbij melden dat dat een mogelijke oorzaak zou kunnen zijn een encoder crash of een internet storing</t>
+  </si>
+  <si>
+    <t>Bij het noodscenario wordt een opname automatisch gestart maar MVI er kan niet geklikt worden op de agendapunten, spreekttijd en stemmingen werken niet</t>
+  </si>
+  <si>
+    <t>ALLEEN IN OVERLEG MET JACOT: Schakkel het noodscenario in</t>
+  </si>
+  <si>
+    <t>In Crestron, druk op de Home knop</t>
+  </si>
+  <si>
+    <t>Home knop Crestron.png</t>
+  </si>
+  <si>
+    <t>Druk drie seconden op de knop 'NOODFunctie camera uitschakelen'</t>
+  </si>
+  <si>
+    <t>Pak de twee handmicrofoons en doe deze aan via de knop aan de de achterkant van de microfoons</t>
+  </si>
+  <si>
+    <t>Laat twee bodes met de handmicrofoons rondlopen</t>
+  </si>
+  <si>
+    <t>Laat Jacot controleren of de opname loopt</t>
+  </si>
+  <si>
+    <t>Verlaat direct de ruimte</t>
+  </si>
+  <si>
+    <t>Het systeem zorgt er automatisch voor dat de vergadering wordt afgesloten. De opname tot dan toe wordt gered</t>
+  </si>
+  <si>
+    <t>Als je dit beeld ziet op Crestron, verlaat de ruimte per direct</t>
+  </si>
+  <si>
+    <t>Allen</t>
+  </si>
+  <si>
+    <t>Brandmelding.png</t>
+  </si>
+  <si>
+    <t>Wacht max 5 minuten, indien geen stroom sluit de vergadering af</t>
+  </si>
+  <si>
+    <t>Er is stroom voor maximaal 15 minuten, als de vergadering niet op tijd afgesloten dan gaat de opname tot dan toe verloren</t>
+  </si>
+  <si>
+    <t>Bij een stroomstoring waarbij het systeem overgaat naar noodstroom, wordt deze melding zichtbaar in Crestron</t>
+  </si>
+  <si>
+    <t>Stroomstoring.png</t>
   </si>
 </sst>
 </file>
@@ -960,7 +1011,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1105,10 +1156,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:A30"/>
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1531,6 +1582,76 @@
         <v>137</v>
       </c>
     </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>12</v>
+      </c>
+      <c r="C31" t="s">
+        <v>98</v>
+      </c>
+      <c r="D31" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>12</v>
+      </c>
+      <c r="C32" t="s">
+        <v>100</v>
+      </c>
+      <c r="D32" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>12</v>
+      </c>
+      <c r="C33" t="s">
+        <v>148</v>
+      </c>
+      <c r="D33" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>13</v>
+      </c>
+      <c r="C34" t="s">
+        <v>155</v>
+      </c>
+      <c r="D34" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>14</v>
+      </c>
+      <c r="C35" t="s">
+        <v>160</v>
+      </c>
+      <c r="D35" t="s">
+        <v>161</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1539,10 +1660,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G85"/>
+  <dimension ref="A1:G99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="A66" sqref="A66:A85"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="E93" sqref="E93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2692,7 +2813,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -2706,7 +2827,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -2720,7 +2841,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -2734,7 +2855,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -2748,7 +2869,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -2760,6 +2881,214 @@
       </c>
       <c r="D85" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>30</v>
+      </c>
+      <c r="C86" t="s">
+        <v>62</v>
+      </c>
+      <c r="D86" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>30</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D87" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>31</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D88" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>32</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D89" t="s">
+        <v>10</v>
+      </c>
+      <c r="E89" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>32</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D90" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>32</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D91" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>32</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D92" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>32</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D93" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>32</v>
+      </c>
+      <c r="C94" t="s">
+        <v>72</v>
+      </c>
+      <c r="D94" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>32</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D95" t="s">
+        <v>10</v>
+      </c>
+      <c r="F95" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>32</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D96" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>32</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D97" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>33</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D98" t="s">
+        <v>158</v>
+      </c>
+      <c r="E98" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>34</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D99" t="s">
+        <v>34</v>
+      </c>
+      <c r="E99" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>

--- a/public/standaard_excel.xlsx
+++ b/public/standaard_excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rotterdam-my.sharepoint.com/personal/157294_rotterdam_nl/Documents/2025/Belangrijke docs/Protocollen/Naar app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="402" documentId="13_ncr:1_{89C2451D-7DA0-46D8-8BFF-0C596089AC02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{21E1DF86-1AF5-4200-9F4E-A4367DB33AF4}"/>
+  <xr:revisionPtr revIDLastSave="403" documentId="13_ncr:1_{89C2451D-7DA0-46D8-8BFF-0C596089AC02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8303CCE8-1584-45A8-B8FC-2C3D8E21A90D}"/>
   <bookViews>
-    <workbookView xWindow="5055" yWindow="480" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-540" yWindow="1245" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Incidenten" sheetId="1" r:id="rId1"/>
@@ -601,9 +601,6 @@
     <t>Allen</t>
   </si>
   <si>
-    <t>Brandmelding.png</t>
-  </si>
-  <si>
     <t>Wacht max 5 minuten, indien geen stroom sluit de vergadering af</t>
   </si>
   <si>
@@ -614,6 +611,9 @@
   </si>
   <si>
     <t>Stroomstoring.png</t>
+  </si>
+  <si>
+    <t>Brandmelding.PNG</t>
   </si>
 </sst>
 </file>
@@ -1646,10 +1646,10 @@
         <v>14</v>
       </c>
       <c r="C35" t="s">
+        <v>159</v>
+      </c>
+      <c r="D35" t="s">
         <v>160</v>
-      </c>
-      <c r="D35" t="s">
-        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -3071,7 +3071,7 @@
         <v>158</v>
       </c>
       <c r="E98" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -3082,13 +3082,13 @@
         <v>34</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D99" t="s">
         <v>34</v>
       </c>
       <c r="E99" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>

--- a/public/standaard_excel.xlsx
+++ b/public/standaard_excel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rotterdam-my.sharepoint.com/personal/157294_rotterdam_nl/Documents/2025/Belangrijke docs/Protocollen/Naar app/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rosas\Desktop\2025\prjectapp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="403" documentId="13_ncr:1_{89C2451D-7DA0-46D8-8BFF-0C596089AC02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8303CCE8-1584-45A8-B8FC-2C3D8E21A90D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AB480DD-7675-446F-AF7C-484E5E154AE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-540" yWindow="1245" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-608" yWindow="6180" windowWidth="20701" windowHeight="8190" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Incidenten" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="166">
   <si>
     <t>ID</t>
   </si>
@@ -49,9 +49,6 @@
   </si>
   <si>
     <t>Verhuis deelnemer naar een andere plek in de zaal</t>
-  </si>
-  <si>
-    <t>Via handmatige camera's sturing</t>
   </si>
   <si>
     <t>Secretaris</t>
@@ -170,9 +167,6 @@
     <t>Stemmingsresultaten worden aan iBabs doorgegeven via de koppeling of later toegevoegd</t>
   </si>
   <si>
-    <t>Checken of stemmingsbestand in MVI klopt met de stemresultaten</t>
-  </si>
-  <si>
     <t>Stemmingen worden dan niet meer verwerkt, deze komen alleen in de notulen te staan</t>
   </si>
   <si>
@@ -314,7 +308,277 @@
     </r>
   </si>
   <si>
-    <t>Bij geen automatische opnames: Via Crestron de opnames handmatig starten</t>
+    <t>Via iBabs, publiek informeren dat de webcast later wordt geplaatst</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Controleer MVI opname: in MVI, tab 'Start', kijk of de camerera zichtbaar is </t>
+  </si>
+  <si>
+    <t>In MVI, tabblad 'Camera' de pijlen gebruiken om de camera zo te positioneren dat de deelnemer goed zichtbaar is</t>
+  </si>
+  <si>
+    <t>Verhuis de deelnemer naar een andere plaats in de zaal (lege plek/katheder/plek wethouder). Houd rekening mee dat de twee plekken rechtsachter in de raadzaal zijn ingesteld voor mensen die zittend moeten praten</t>
+  </si>
+  <si>
+    <t>Als het goed is, is MultiTimer op je laptop geïnstalleerd en is het ingericht voor de fracties.</t>
+  </si>
+  <si>
+    <t>Handleiding MultiTimer.pdf</t>
+  </si>
+  <si>
+    <t>Controleer of de ingestelde tijd klopt, indien niet wijzig het volgens de handleiding</t>
+  </si>
+  <si>
+    <t>Houd de tijd in per fractie via MultiTimer en geeft dit door aan de (cie) griffier via de app</t>
+  </si>
+  <si>
+    <t>Stemmmen via handen in de lucht en handmatig tellen</t>
+  </si>
+  <si>
+    <t>Draait audioopname in Crestron</t>
+  </si>
+  <si>
+    <t>Als de audioopname draait dan kunnen de notulen later worden gemaakt (minimale eis)</t>
+  </si>
+  <si>
+    <t>Eerst openbaar deel afmaken daarna besloten deel opstarten</t>
+  </si>
+  <si>
+    <t>Minimale eis is dat er een audiobestand van gemaakt wordt t.b.v. de notulen</t>
+  </si>
+  <si>
+    <t>In Crestron, tab 'Opname', controleer of de opname draait</t>
+  </si>
+  <si>
+    <t>Draait de opname nog niet, druk dan in hetzelfe tab op de knop 'Start opname in Audiovisueel-recorder (audio opname start dan ook automatisch)</t>
+  </si>
+  <si>
+    <t>Vraag voor de zekerheid aan Jacot of audio-opname loopt (TASCAM)</t>
+  </si>
+  <si>
+    <t>Controleer of de microfoonposten nog werken, zodat mensen zich verstandbaar kunnen maken</t>
+  </si>
+  <si>
+    <t>In overleg met de (cie)griffier, eerst het openbaar deel afmaken dan de vergadering via MVI afsluiten</t>
+  </si>
+  <si>
+    <t>Start het AV-systeem op en start een Reguliere vergadering (microfoons kunnen dan gebruikt worden en er gaat niet naar buiten)</t>
+  </si>
+  <si>
+    <t>Knop 'Besloten' werkt niet</t>
+  </si>
+  <si>
+    <t>Minimale eis om te kunnen vergaderen is dat er minimaal een audio opname gemaakt wordt</t>
+  </si>
+  <si>
+    <t>Wachter op terugkoppeling van MMT, pas dan andere opties overwegen</t>
+  </si>
+  <si>
+    <t>Start opname handmatig op</t>
+  </si>
+  <si>
+    <t>Volgens protocol: probleem telefonisch melden aan team Multimedia</t>
+  </si>
+  <si>
+    <t>MMT neemt contact op met Jacot en koppelt terug</t>
+  </si>
+  <si>
+    <t>Meld probleem rechtsreeks aan Jacot</t>
+  </si>
+  <si>
+    <t>Alleen wanneer MMT niet beschikbaar is</t>
+  </si>
+  <si>
+    <t>Beld het noodnunmer van Jacot en meld het probleem</t>
+  </si>
+  <si>
+    <t>In Crestron, tab 'Opname', druk op de knop 'Start opname in Audiovisueel-recorder' ((audio opname start dan ook automatisch)</t>
+  </si>
+  <si>
+    <t>In Crestron, tab 'Opname' druk op de knop 'Start opname in Audiovisueel-recorder' ((audio opname start dan ook automatisch)</t>
+  </si>
+  <si>
+    <t>Er wordt geen opname gemaakt (in MVI, tab 'Start' is recorder niet zichtbaar)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Via iBabs, publiek informeren dat er in aagepaste vorm vergaderd wordt </t>
+  </si>
+  <si>
+    <t>Geen synchronisatie met iBabs mogelijk, de knop 'Sync met iBabs' geeft een foutmelding</t>
+  </si>
+  <si>
+    <t>Geen synchronisatie met iBabs mogelijk, de knop 'Resync' werkt niet</t>
+  </si>
+  <si>
+    <t>Excel-sjabloon voor de vergadering verwerken en uploaden in MVI</t>
+  </si>
+  <si>
+    <t>Let op: er wordt in dit geval geen metadata naar iBabs doorgestuurd (agendapunten tbv indexatie en stemmingsresultaten)</t>
+  </si>
+  <si>
+    <t>Op de MVI-PC in map Bureaublad/Excel/Sjablonen de sjablonen voor alle agendatypes</t>
+  </si>
+  <si>
+    <t>Kopieer het juiste sjabloon naar de map Bureaublad/Excel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hernoem het desnoods naar een betere naam en open het </t>
+  </si>
+  <si>
+    <t>Verwerk het volgens de handleiding, de sjablonen bevatten al extra agendapunten aangezien na het inladen geen extra agendapunten kunnen worden toegevoegd</t>
+  </si>
+  <si>
+    <t>LET OP: Tijdens de vergadering is het niet mogelijk het excel bestand te verwerken</t>
+  </si>
+  <si>
+    <t>Excel bestand bewerken-V1.pdf</t>
+  </si>
+  <si>
+    <t>Ga in MVI naar tab ‘Start’ klik vervolgens onderaan op ‘Excel laden'</t>
+  </si>
+  <si>
+    <t>Kies het zojuist bewerkte Excel bestand om het in MVI te laden</t>
+  </si>
+  <si>
+    <t>Ga verder met het voorbereiden van de vergadering in MVI</t>
+  </si>
+  <si>
+    <t>Bel CwC en vraag ze de stream handmatig te sarten via Online Manager. Team Informatiemanagement kan dit eventueel ook doen</t>
+  </si>
+  <si>
+    <t>Na de vergadering: ga op de MVI computer naar de map ‘MVI opname’ en zoek naar het tekstbestand met &lt;datum_tijdstip&gt;. Het bestand bevat de sprekersmarkering van de vergadering</t>
+  </si>
+  <si>
+    <t>Na de vergadering: verstuur het bestand naar CwC. Geef daarbij door: CIE-naam+datum+tijdstip+ruimte</t>
+  </si>
+  <si>
+    <t>Na de vergadering:  bel Jacot met de vraag of ze de database kunnen legen zodat de volgende vergadering gesynchroniseerd kan worden</t>
+  </si>
+  <si>
+    <t>Agendawijzigingen rechstreeks in MVI aanbrengen</t>
+  </si>
+  <si>
+    <t>Gewijzigde agendapunten zijn zichtbaar in de stream, maar er kunnen in MVI geen agendapunten worden toegevoegd of verwijderd</t>
+  </si>
+  <si>
+    <t>Ga in MVI naar tab 'Agenda' en breng rechtstreeks in MVI de nodig aanpassingen aan.</t>
+  </si>
+  <si>
+    <t>Gaat het om een agendapunt: dubbelklik op de tekst, er verschijnt een klein venster waar je de tekst kunt aanpassen</t>
+  </si>
+  <si>
+    <t>Gaat het om motie waarop gestemd moet worden: ga in de stemmingsvenster en klik op het plusje en voeg de motie toe</t>
+  </si>
+  <si>
+    <t>NOG TE CONTROLEREN WAT WORDT DOORGEGEVEN AAN IBABS NA EEN HADMATIGE AANPASSING IN MVI)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kunnen moties echt worden toegevoegd? Of alleen </t>
+  </si>
+  <si>
+    <t>Bij één defect monitor: kijkt voorzitter en (cie)griffier naar één monitor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In dit geval moet de muis indien nodig gedeeld worden </t>
+  </si>
+  <si>
+    <t>Bij twee defecte monitoren: Team Multimedia vervangt een monitor</t>
+  </si>
+  <si>
+    <t>Ondersteuning neemt bediening MVI over en communiceert via de app met (cie)griffier</t>
+  </si>
+  <si>
+    <t>Als het lukt dan is er één werkend monitor, de muis wordt indien nodig gedeeld door voorzitten en (cie)griffier</t>
+  </si>
+  <si>
+    <t>Alle belangrijke momenten communiceren via Whatsapp</t>
+  </si>
+  <si>
+    <t>MMT probeert een of beide monitoren aan te repareren</t>
+  </si>
+  <si>
+    <t>De voorzitter of de griffier kijkt naar het ander scherm dat nog steeds werkt</t>
+  </si>
+  <si>
+    <t>Wanneer alleen het scherm van de voorzitter nog operationeel is, dan indien nodig pakt de griffier de bijbehorende muis en markeert de agendapunten</t>
+  </si>
+  <si>
+    <t>MMT pakt een van de monitoren van de testruimte en koppelt op de plek van de defecte monitor</t>
+  </si>
+  <si>
+    <t>Raads- of commissieondersteuning markeert de agendapunten</t>
+  </si>
+  <si>
+    <t>Spreektijden en stemmingsresultaten worden via Whatsapp doorgegeven aan de (cie)griffier</t>
+  </si>
+  <si>
+    <t>Vergadering gaat door zonder livestream</t>
+  </si>
+  <si>
+    <t>Bel een van de medewerkers van MMT en meld het probleem, geeft door dat een mogelijke oorzaak zou kunnen zijn een encoder crash of een internet storing</t>
+  </si>
+  <si>
+    <t>Bel Company Webcast en meld het probleem, je mag daarbij melden dat dat een mogelijke oorzaak zou kunnen zijn een encoder crash of een internet storing</t>
+  </si>
+  <si>
+    <t>Bij het noodscenario wordt een opname automatisch gestart maar MVI er kan niet geklikt worden op de agendapunten, spreekttijd en stemmingen werken niet</t>
+  </si>
+  <si>
+    <t>ALLEEN IN OVERLEG MET JACOT: Schakkel het noodscenario in</t>
+  </si>
+  <si>
+    <t>In Crestron, druk op de Home knop</t>
+  </si>
+  <si>
+    <t>Home knop Crestron.png</t>
+  </si>
+  <si>
+    <t>Druk drie seconden op de knop 'NOODFunctie camera uitschakelen'</t>
+  </si>
+  <si>
+    <t>Pak de twee handmicrofoons en doe deze aan via de knop aan de de achterkant van de microfoons</t>
+  </si>
+  <si>
+    <t>Laat twee bodes met de handmicrofoons rondlopen</t>
+  </si>
+  <si>
+    <t>Laat Jacot controleren of de opname loopt</t>
+  </si>
+  <si>
+    <t>Verlaat direct de ruimte</t>
+  </si>
+  <si>
+    <t>Het systeem zorgt er automatisch voor dat de vergadering wordt afgesloten. De opname tot dan toe wordt gered</t>
+  </si>
+  <si>
+    <t>Als je dit beeld ziet op Crestron, verlaat de ruimte per direct</t>
+  </si>
+  <si>
+    <t>Allen</t>
+  </si>
+  <si>
+    <t>Wacht max 5 minuten, indien geen stroom sluit de vergadering af</t>
+  </si>
+  <si>
+    <t>Er is stroom voor maximaal 15 minuten, als de vergadering niet op tijd afgesloten dan gaat de opname tot dan toe verloren</t>
+  </si>
+  <si>
+    <t>Bij een stroomstoring waarbij het systeem overgaat naar noodstroom, wordt deze melding zichtbaar in Crestron</t>
+  </si>
+  <si>
+    <t>Stroomstoring.png</t>
+  </si>
+  <si>
+    <t>Brandmelding.PNG</t>
+  </si>
+  <si>
+    <t>Volgens protocol: probleeem telefonisch melden aan team Multimedia</t>
+  </si>
+  <si>
+    <t>Wacht op terugkoppeling van MMT, overweeg pas daarna andere opties</t>
+  </si>
+  <si>
+    <t>Bij geen automatische opnames: Start de opnames handmatig via Crestron</t>
   </si>
   <si>
     <r>
@@ -336,291 +600,33 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Indien geen opnames gemaakt kunnen worden kan niet verder vergaderd worden (minimale eis=audio opname)</t>
+      <t xml:space="preserve"> zonder opname mag niet verder vergaderd worden (minimale eis=audio opname)</t>
     </r>
   </si>
   <si>
-    <t>Via iBabs, publiek informeren dat de webcast later wordt geplaatst</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Controleer MVI opname: in MVI, tab 'Start', kijk of de camerera zichtbaar is </t>
-  </si>
-  <si>
-    <t>In MVI, tabblad 'Camera' de pijlen gebruiken om de camera zo te positioneren dat de deelnemer goed zichtbaar is</t>
-  </si>
-  <si>
-    <t>Verhuis de deelnemer naar een andere plaats in de zaal (lege plek/katheder/plek wethouder). Houd rekening mee dat de twee plekken rechtsachter in de raadzaal zijn ingesteld voor mensen die zittend moeten praten</t>
-  </si>
-  <si>
-    <t>Indien geen lege plek meer is, moet de deelnemer om de beurt inloggen</t>
-  </si>
-  <si>
-    <t>Indien meerdere microfoonposten defect zijn, is er iemand nodig om de microfoons steeds langs te brengen</t>
-  </si>
-  <si>
-    <t>Via de ambiance­microfoons is alles achter in de zaal hoorbaar, zelfs wanneer de microfoonposten uitgeschakeld zijn</t>
-  </si>
-  <si>
-    <t>Als het goed is, is MultiTimer op je laptop geïnstalleerd en is het ingericht voor de fracties.</t>
-  </si>
-  <si>
-    <t>Handleiding MultiTimer.pdf</t>
-  </si>
-  <si>
-    <t>Controleer of de ingestelde tijd klopt, indien niet wijzig het volgens de handleiding</t>
-  </si>
-  <si>
-    <t>Houd de tijd in per fractie via MultiTimer en geeft dit door aan de (cie) griffier via de app</t>
-  </si>
-  <si>
-    <t>Stemmmen via handen in de lucht en handmatig tellen</t>
-  </si>
-  <si>
-    <t>Draait audioopname in Crestron</t>
-  </si>
-  <si>
-    <t>Als de audioopname draait dan kunnen de notulen later worden gemaakt (minimale eis)</t>
-  </si>
-  <si>
-    <t>Eerst openbaar deel afmaken daarna besloten deel opstarten</t>
-  </si>
-  <si>
-    <t>Minimale eis is dat er een audiobestand van gemaakt wordt t.b.v. de notulen</t>
-  </si>
-  <si>
-    <t>In Crestron, tab 'Opname', controleer of de opname draait</t>
-  </si>
-  <si>
-    <t>Draait de opname nog niet, druk dan in hetzelfe tab op de knop 'Start opname in Audiovisueel-recorder (audio opname start dan ook automatisch)</t>
-  </si>
-  <si>
-    <t>Vraag voor de zekerheid aan Jacot of audio-opname loopt (TASCAM)</t>
-  </si>
-  <si>
-    <t>Controleer of de microfoonposten nog werken, zodat mensen zich verstandbaar kunnen maken</t>
-  </si>
-  <si>
-    <t>In overleg met de (cie)griffier, eerst het openbaar deel afmaken dan de vergadering via MVI afsluiten</t>
-  </si>
-  <si>
-    <t>Start het AV-systeem op en start een Reguliere vergadering (microfoons kunnen dan gebruikt worden en er gaat niet naar buiten)</t>
-  </si>
-  <si>
-    <t>Knop 'Besloten' werkt niet</t>
-  </si>
-  <si>
-    <t>Minimale eis om te kunnen vergaderen is dat er minimaal een audio opname gemaakt wordt</t>
-  </si>
-  <si>
-    <t>Wachter op terugkoppeling van MMT, pas dan andere opties overwegen</t>
-  </si>
-  <si>
-    <t>Start opname handmatig op</t>
-  </si>
-  <si>
-    <t>Volgens protocol: probleem telefonisch melden aan team Multimedia</t>
-  </si>
-  <si>
-    <t>MMT neemt contact op met Jacot en koppelt terug</t>
-  </si>
-  <si>
-    <t>Meld probleem rechtsreeks aan Jacot</t>
-  </si>
-  <si>
-    <t>Alleen wanneer MMT niet beschikbaar is</t>
-  </si>
-  <si>
-    <t>Beld het noodnunmer van Jacot en meld het probleem</t>
-  </si>
-  <si>
-    <t>In Crestron, tab 'Opname', druk op de knop 'Start opname in Audiovisueel-recorder' ((audio opname start dan ook automatisch)</t>
-  </si>
-  <si>
-    <t>In Crestron, tab 'Opname' druk op de knop 'Start opname in Audiovisueel-recorder' ((audio opname start dan ook automatisch)</t>
-  </si>
-  <si>
-    <t>Er wordt geen opname gemaakt (in MVI, tab 'Start' is recorder niet zichtbaar)</t>
-  </si>
-  <si>
-    <t>Vereist aanwezigheid MMT. De beschikbare camera's geven dan een minimaal overzicht</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Via iBabs, publiek informeren dat er in aagepaste vorm vergaderd wordt </t>
-  </si>
-  <si>
-    <t>Geen synchronisatie met iBabs mogelijk, de knop 'Sync met iBabs' geeft een foutmelding</t>
-  </si>
-  <si>
-    <t>Geen synchronisatie met iBabs mogelijk, de knop 'Resync' werkt niet</t>
-  </si>
-  <si>
-    <t>Excel-sjabloon voor de vergadering verwerken en uploaden in MVI</t>
-  </si>
-  <si>
-    <t>Let op: er wordt in dit geval geen metadata naar iBabs doorgestuurd (agendapunten tbv indexatie en stemmingsresultaten)</t>
-  </si>
-  <si>
-    <t>Op de MVI-PC in map Bureaublad/Excel/Sjablonen de sjablonen voor alle agendatypes</t>
-  </si>
-  <si>
-    <t>Kopieer het juiste sjabloon naar de map Bureaublad/Excel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hernoem het desnoods naar een betere naam en open het </t>
-  </si>
-  <si>
-    <t>Verwerk het volgens de handleiding, de sjablonen bevatten al extra agendapunten aangezien na het inladen geen extra agendapunten kunnen worden toegevoegd</t>
-  </si>
-  <si>
-    <t>LET OP: Tijdens de vergadering is het niet mogelijk het excel bestand te verwerken</t>
-  </si>
-  <si>
-    <t>Excel bestand bewerken-V1.pdf</t>
-  </si>
-  <si>
-    <t>Ga in MVI naar tab ‘Start’ klik vervolgens onderaan op ‘Excel laden'</t>
-  </si>
-  <si>
-    <t>Kies het zojuist bewerkte Excel bestand om het in MVI te laden</t>
-  </si>
-  <si>
-    <t>Ga verder met het voorbereiden van de vergadering in MVI</t>
-  </si>
-  <si>
-    <t>Bel CwC en vraag ze de stream handmatig te sarten via Online Manager. Team Informatiemanagement kan dit eventueel ook doen</t>
-  </si>
-  <si>
-    <t>Na de vergadering: ga op de MVI computer naar de map ‘MVI opname’ en zoek naar het tekstbestand met &lt;datum_tijdstip&gt;. Het bestand bevat de sprekersmarkering van de vergadering</t>
-  </si>
-  <si>
-    <t>Na de vergadering: verstuur het bestand naar CwC. Geef daarbij door: CIE-naam+datum+tijdstip+ruimte</t>
-  </si>
-  <si>
-    <t>Na de vergadering:  bel Jacot met de vraag of ze de database kunnen legen zodat de volgende vergadering gesynchroniseerd kan worden</t>
-  </si>
-  <si>
-    <t>Agendawijzigingen rechstreeks in MVI aanbrengen</t>
-  </si>
-  <si>
-    <t>Gewijzigde agendapunten zijn zichtbaar in de stream, maar er kunnen in MVI geen agendapunten worden toegevoegd of verwijderd</t>
-  </si>
-  <si>
-    <t>Ga in MVI naar tab 'Agenda' en breng rechtstreeks in MVI de nodig aanpassingen aan.</t>
-  </si>
-  <si>
-    <t>Gaat het om een agendapunt: dubbelklik op de tekst, er verschijnt een klein venster waar je de tekst kunt aanpassen</t>
-  </si>
-  <si>
-    <t>Gaat het om motie waarop gestemd moet worden: ga in de stemmingsvenster en klik op het plusje en voeg de motie toe</t>
-  </si>
-  <si>
-    <t>NOG TE CONTROLEREN WAT WORDT DOORGEGEVEN AAN IBABS NA EEN HADMATIGE AANPASSING IN MVI)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kunnen moties echt worden toegevoegd? Of alleen </t>
-  </si>
-  <si>
-    <t>Bij één defect monitor: kijkt voorzitter en (cie)griffier naar één monitor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In dit geval moet de muis indien nodig gedeeld worden </t>
-  </si>
-  <si>
-    <t>Bij twee defecte monitoren: Team Multimedia vervangt een monitor</t>
-  </si>
-  <si>
-    <t>Ondersteuning neemt bediening MVI over en communiceert via de app met (cie)griffier</t>
-  </si>
-  <si>
-    <t>Als het lukt dan is er één werkend monitor, de muis wordt indien nodig gedeeld door voorzitten en (cie)griffier</t>
-  </si>
-  <si>
-    <t>Alle belangrijke momenten communiceren via Whatsapp</t>
-  </si>
-  <si>
-    <t>MMT probeert een of beide monitoren aan te repareren</t>
-  </si>
-  <si>
-    <t>De voorzitter of de griffier kijkt naar het ander scherm dat nog steeds werkt</t>
-  </si>
-  <si>
-    <t>Wanneer alleen het scherm van de voorzitter nog operationeel is, dan indien nodig pakt de griffier de bijbehorende muis en markeert de agendapunten</t>
-  </si>
-  <si>
-    <t>MMT pakt een van de monitoren van de testruimte en koppelt op de plek van de defecte monitor</t>
-  </si>
-  <si>
-    <t>Raads- of commissieondersteuning markeert de agendapunten</t>
-  </si>
-  <si>
-    <t>Spreektijden en stemmingsresultaten worden via Whatsapp doorgegeven aan de (cie)griffier</t>
-  </si>
-  <si>
-    <t>Vergadering gaat door zonder livestream</t>
-  </si>
-  <si>
-    <t>Bel een van de medewerkers van MMT en meld het probleem, geeft door dat een mogelijke oorzaak zou kunnen zijn een encoder crash of een internet storing</t>
-  </si>
-  <si>
-    <t>Bel Company Webcast en meld het probleem, je mag daarbij melden dat dat een mogelijke oorzaak zou kunnen zijn een encoder crash of een internet storing</t>
-  </si>
-  <si>
-    <t>Bij het noodscenario wordt een opname automatisch gestart maar MVI er kan niet geklikt worden op de agendapunten, spreekttijd en stemmingen werken niet</t>
-  </si>
-  <si>
-    <t>ALLEEN IN OVERLEG MET JACOT: Schakkel het noodscenario in</t>
-  </si>
-  <si>
-    <t>In Crestron, druk op de Home knop</t>
-  </si>
-  <si>
-    <t>Home knop Crestron.png</t>
-  </si>
-  <si>
-    <t>Druk drie seconden op de knop 'NOODFunctie camera uitschakelen'</t>
-  </si>
-  <si>
-    <t>Pak de twee handmicrofoons en doe deze aan via de knop aan de de achterkant van de microfoons</t>
-  </si>
-  <si>
-    <t>Laat twee bodes met de handmicrofoons rondlopen</t>
-  </si>
-  <si>
-    <t>Laat Jacot controleren of de opname loopt</t>
-  </si>
-  <si>
-    <t>Verlaat direct de ruimte</t>
-  </si>
-  <si>
-    <t>Het systeem zorgt er automatisch voor dat de vergadering wordt afgesloten. De opname tot dan toe wordt gered</t>
-  </si>
-  <si>
-    <t>Als je dit beeld ziet op Crestron, verlaat de ruimte per direct</t>
-  </si>
-  <si>
-    <t>Allen</t>
-  </si>
-  <si>
-    <t>Wacht max 5 minuten, indien geen stroom sluit de vergadering af</t>
-  </si>
-  <si>
-    <t>Er is stroom voor maximaal 15 minuten, als de vergadering niet op tijd afgesloten dan gaat de opname tot dan toe verloren</t>
-  </si>
-  <si>
-    <t>Bij een stroomstoring waarbij het systeem overgaat naar noodstroom, wordt deze melding zichtbaar in Crestron</t>
-  </si>
-  <si>
-    <t>Stroomstoring.png</t>
-  </si>
-  <si>
-    <t>Brandmelding.PNG</t>
+    <t>Als er geen lege plek meer is, moet de deelnemer om de beurt inloggen</t>
+  </si>
+  <si>
+    <t>Handmatige camerasturing</t>
+  </si>
+  <si>
+    <t>Vereist aanwezigheid MMT. Camera’s geven alleen minimaal overzicht</t>
+  </si>
+  <si>
+    <t>Indien meerdere microfoonposten defect zijn, is er iemand nodig om de microfoons langs te brengen</t>
+  </si>
+  <si>
+    <t>Let op: alles achter in de zaal is hoorbaar, ook als microfoonposten zijn uitgeschakeld</t>
+  </si>
+  <si>
+    <t>Controleer of de stemmingsbestand in MVI klopt met de stemresultaten</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1014,13 +1020,13 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="8.42578125" customWidth="1"/>
-    <col min="2" max="2" width="51.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.3984375" customWidth="1"/>
+    <col min="2" max="2" width="51.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1028,124 +1034,124 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1158,17 +1164,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="3" max="3" width="55.7109375" customWidth="1"/>
-    <col min="4" max="4" width="82" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="55.73046875" customWidth="1"/>
+    <col min="4" max="4" width="106.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1182,7 +1188,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1190,13 +1196,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>98</v>
+        <v>156</v>
       </c>
       <c r="D2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1204,13 +1210,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1221,10 +1227,10 @@
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1232,13 +1238,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>70</v>
+        <v>158</v>
       </c>
       <c r="D5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1249,7 +1255,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1260,10 +1266,10 @@
         <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1271,13 +1277,13 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>161</v>
       </c>
       <c r="D8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1288,10 +1294,10 @@
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1299,13 +1305,13 @@
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1313,13 +1319,13 @@
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1327,13 +1333,13 @@
         <v>4</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>42</v>
+        <v>165</v>
       </c>
       <c r="D12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1341,13 +1347,13 @@
         <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1355,13 +1361,13 @@
         <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D14" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1369,13 +1375,13 @@
         <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="D15" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1383,13 +1389,13 @@
         <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="D16" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1397,13 +1403,13 @@
         <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="D17" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1411,13 +1417,13 @@
         <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="D18" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1425,13 +1431,13 @@
         <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="D19" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1439,13 +1445,13 @@
         <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="D20" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1453,13 +1459,13 @@
         <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="D21" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1467,13 +1473,13 @@
         <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="D22" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1481,13 +1487,13 @@
         <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="D23" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1495,13 +1501,13 @@
         <v>10</v>
       </c>
       <c r="C24" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="D24" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1509,13 +1515,13 @@
         <v>10</v>
       </c>
       <c r="C25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D25" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1523,13 +1529,13 @@
         <v>10</v>
       </c>
       <c r="C26" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="D26" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1537,10 +1543,10 @@
         <v>11</v>
       </c>
       <c r="C27" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1548,13 +1554,13 @@
         <v>11</v>
       </c>
       <c r="C28" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="D28" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1562,13 +1568,13 @@
         <v>11</v>
       </c>
       <c r="C29" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="D29" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1576,13 +1582,13 @@
         <v>11</v>
       </c>
       <c r="C30" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="D30" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1590,13 +1596,13 @@
         <v>12</v>
       </c>
       <c r="C31" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="D31" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1604,13 +1610,13 @@
         <v>12</v>
       </c>
       <c r="C32" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="D32" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1618,13 +1624,13 @@
         <v>12</v>
       </c>
       <c r="C33" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="D33" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1632,13 +1638,13 @@
         <v>13</v>
       </c>
       <c r="C34" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="D34" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1646,10 +1652,10 @@
         <v>14</v>
       </c>
       <c r="C35" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="D35" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -1662,20 +1668,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E93" sqref="E93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="107.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.5703125" customWidth="1"/>
-    <col min="5" max="5" width="22.5703125" customWidth="1"/>
-    <col min="6" max="6" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="107.265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.59765625" customWidth="1"/>
+    <col min="5" max="5" width="22.59765625" customWidth="1"/>
+    <col min="6" max="6" width="34.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1689,13 +1695,13 @@
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1703,13 +1709,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1717,13 +1723,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1731,13 +1737,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1745,13 +1751,13 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1759,13 +1765,13 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1773,16 +1779,16 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1790,13 +1796,13 @@
         <v>3</v>
       </c>
       <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1804,10 +1810,10 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1815,16 +1821,16 @@
         <v>3</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1832,13 +1838,13 @@
         <v>3</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1846,13 +1852,13 @@
         <v>3</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1860,13 +1866,13 @@
         <v>4</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1874,13 +1880,13 @@
         <v>4</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1888,13 +1894,13 @@
         <v>4</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1902,13 +1908,13 @@
         <v>4</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1916,13 +1922,13 @@
         <v>4</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1930,13 +1936,13 @@
         <v>5</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="28.5">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1944,13 +1950,13 @@
         <v>6</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1958,13 +1964,13 @@
         <v>7</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1972,13 +1978,13 @@
         <v>7</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D21" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1986,13 +1992,13 @@
         <v>7</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="28.5">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2000,13 +2006,13 @@
         <v>8</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2014,13 +2020,13 @@
         <v>9</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2028,13 +2034,13 @@
         <v>9</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D25" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2042,13 +2048,13 @@
         <v>9</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D26" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2056,13 +2062,13 @@
         <v>9</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2070,13 +2076,13 @@
         <v>10</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D28" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2084,13 +2090,13 @@
         <v>10</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D29" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2098,13 +2104,13 @@
         <v>11</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2112,13 +2118,13 @@
         <v>12</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D31" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2126,13 +2132,13 @@
         <v>12</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D32" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2140,13 +2146,13 @@
         <v>12</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D33" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2154,10 +2160,10 @@
         <v>12</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2165,16 +2171,16 @@
         <v>13</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F35" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2182,13 +2188,13 @@
         <v>13</v>
       </c>
       <c r="C36" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2196,13 +2202,13 @@
         <v>13</v>
       </c>
       <c r="C37" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2210,13 +2216,13 @@
         <v>14</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2224,13 +2230,13 @@
         <v>14</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D39" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2238,13 +2244,13 @@
         <v>14</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D40" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2252,13 +2258,13 @@
         <v>14</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="D41" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2266,13 +2272,13 @@
         <v>15</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2280,13 +2286,13 @@
         <v>15</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2294,13 +2300,13 @@
         <v>15</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2308,13 +2314,13 @@
         <v>15</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2322,13 +2328,13 @@
         <v>16</v>
       </c>
       <c r="C46" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2336,13 +2342,13 @@
         <v>16</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="D47" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2350,13 +2356,13 @@
         <v>17</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2364,13 +2370,13 @@
         <v>18</v>
       </c>
       <c r="C49" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="D49" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2378,13 +2384,13 @@
         <v>18</v>
       </c>
       <c r="C50" t="s">
+        <v>17</v>
+      </c>
+      <c r="D50" t="s">
         <v>18</v>
       </c>
-      <c r="D50" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2392,13 +2398,13 @@
         <v>19</v>
       </c>
       <c r="C51" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2406,13 +2412,13 @@
         <v>19</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="D52" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2420,13 +2426,13 @@
         <v>20</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2434,13 +2440,13 @@
         <v>21</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2448,13 +2454,13 @@
         <v>21</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2462,13 +2468,13 @@
         <v>21</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2476,16 +2482,16 @@
         <v>21</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F57" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2493,13 +2499,13 @@
         <v>21</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2507,13 +2513,13 @@
         <v>21</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2521,13 +2527,13 @@
         <v>21</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2535,13 +2541,13 @@
         <v>21</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2549,13 +2555,13 @@
         <v>21</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63">
         <v>62</v>
       </c>
@@ -2563,13 +2569,13 @@
         <v>21</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64">
         <v>63</v>
       </c>
@@ -2577,13 +2583,13 @@
         <v>21</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65">
         <v>64</v>
       </c>
@@ -2591,13 +2597,13 @@
         <v>21</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66">
         <v>65</v>
       </c>
@@ -2605,13 +2611,13 @@
         <v>22</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67">
         <v>66</v>
       </c>
@@ -2619,16 +2625,16 @@
         <v>22</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G67" s="5" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68">
         <v>67</v>
       </c>
@@ -2636,16 +2642,16 @@
         <v>22</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G68" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69">
         <v>68</v>
       </c>
@@ -2653,13 +2659,13 @@
         <v>23</v>
       </c>
       <c r="C69" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70">
         <v>69</v>
       </c>
@@ -2667,13 +2673,13 @@
         <v>23</v>
       </c>
       <c r="C70" t="s">
+        <v>10</v>
+      </c>
+      <c r="D70" t="s">
         <v>11</v>
       </c>
-      <c r="D70" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71">
         <v>70</v>
       </c>
@@ -2681,10 +2687,10 @@
         <v>24</v>
       </c>
       <c r="C71" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72">
         <v>71</v>
       </c>
@@ -2692,13 +2698,13 @@
         <v>25</v>
       </c>
       <c r="C72" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73">
         <v>72</v>
       </c>
@@ -2706,16 +2712,16 @@
         <v>25</v>
       </c>
       <c r="C73" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D73" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E73" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74">
         <v>73</v>
       </c>
@@ -2723,13 +2729,13 @@
         <v>25</v>
       </c>
       <c r="C74" t="s">
+        <v>17</v>
+      </c>
+      <c r="D74" t="s">
         <v>18</v>
       </c>
-      <c r="D74" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75">
         <v>74</v>
       </c>
@@ -2737,10 +2743,10 @@
         <v>25</v>
       </c>
       <c r="C75" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76">
         <v>75</v>
       </c>
@@ -2748,16 +2754,16 @@
         <v>25</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F76" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77">
         <v>76</v>
       </c>
@@ -2765,13 +2771,13 @@
         <v>25</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78">
         <v>77</v>
       </c>
@@ -2779,13 +2785,13 @@
         <v>25</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79">
         <v>78</v>
       </c>
@@ -2793,13 +2799,13 @@
         <v>26</v>
       </c>
       <c r="C79" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80">
         <v>79</v>
       </c>
@@ -2807,13 +2813,13 @@
         <v>26</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="D80" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81">
         <v>80</v>
       </c>
@@ -2821,13 +2827,13 @@
         <v>27</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="D81" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82">
         <v>81</v>
       </c>
@@ -2835,13 +2841,13 @@
         <v>27</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D82" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83">
         <v>82</v>
       </c>
@@ -2849,13 +2855,13 @@
         <v>28</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="D83" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84">
         <v>83</v>
       </c>
@@ -2863,13 +2869,13 @@
         <v>29</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85">
         <v>84</v>
       </c>
@@ -2877,13 +2883,13 @@
         <v>29</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86">
         <v>85</v>
       </c>
@@ -2891,13 +2897,13 @@
         <v>30</v>
       </c>
       <c r="C86" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87">
         <v>86</v>
       </c>
@@ -2905,13 +2911,13 @@
         <v>30</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="D87" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88">
         <v>87</v>
       </c>
@@ -2919,13 +2925,13 @@
         <v>31</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89">
         <v>88</v>
       </c>
@@ -2933,16 +2939,16 @@
         <v>32</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E89" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90">
         <v>89</v>
       </c>
@@ -2950,13 +2956,13 @@
         <v>32</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91">
         <v>90</v>
       </c>
@@ -2964,13 +2970,13 @@
         <v>32</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92">
         <v>91</v>
       </c>
@@ -2978,13 +2984,13 @@
         <v>32</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93">
         <v>92</v>
       </c>
@@ -2992,13 +2998,13 @@
         <v>32</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94">
         <v>93</v>
       </c>
@@ -3006,13 +3012,13 @@
         <v>32</v>
       </c>
       <c r="C94" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95">
         <v>94</v>
       </c>
@@ -3020,16 +3026,16 @@
         <v>32</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F95" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96">
         <v>95</v>
       </c>
@@ -3037,13 +3043,13 @@
         <v>32</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
       <c r="A97">
         <v>96</v>
       </c>
@@ -3051,13 +3057,13 @@
         <v>32</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
       <c r="A98">
         <v>97</v>
       </c>
@@ -3065,16 +3071,16 @@
         <v>33</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="D98" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="E98" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
       <c r="A99">
         <v>98</v>
       </c>
@@ -3082,13 +3088,13 @@
         <v>34</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="D99" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E99" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>

--- a/public/standaard_excel.xlsx
+++ b/public/standaard_excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rosas\Desktop\2025\prjectapp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AB480DD-7675-446F-AF7C-484E5E154AE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{419977DD-BD1F-4662-B103-49B48BAB8363}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-608" yWindow="6180" windowWidth="20701" windowHeight="8190" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4867" yWindow="2393" windowWidth="20521" windowHeight="8190" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Incidenten" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="165">
   <si>
     <t>ID</t>
   </si>
@@ -43,9 +43,6 @@
   </si>
   <si>
     <t>Vergaderen zonder livestream</t>
-  </si>
-  <si>
-    <t>Via MVI, beeld richten op deelnemer</t>
   </si>
   <si>
     <t>Verhuis deelnemer naar een andere plek in de zaal</t>
@@ -107,9 +104,6 @@
     </r>
   </si>
   <si>
-    <t>Vraagt voor de zekerheid aan Jacot of audio-opname loopt (TASCAM)</t>
-  </si>
-  <si>
     <t>Deelnemers worden niet optimaal in beeld gebracht</t>
   </si>
   <si>
@@ -219,9 +213,6 @@
   </si>
   <si>
     <t>Bel Company Webcast en meld het probleem</t>
-  </si>
-  <si>
-    <t>MMT koppelt terug</t>
   </si>
   <si>
     <t xml:space="preserve">Bel een van de medewerkers van MMT en meld het probleem </t>
@@ -282,32 +273,6 @@
     </r>
   </si>
   <si>
-    <t>In Crestron, tab Opname, 'Start opname in Audiovisueel-recorder' (audio opname start dan automatisch)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Na de vergadering:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Indien het video/audio bestand niet compleet is, vraag het complete bestand aan Jacot</t>
-    </r>
-  </si>
-  <si>
     <t>Via iBabs, publiek informeren dat de webcast later wordt geplaatst</t>
   </si>
   <si>
@@ -578,32 +543,6 @@
     <t>Wacht op terugkoppeling van MMT, overweeg pas daarna andere opties</t>
   </si>
   <si>
-    <t>Bij geen automatische opnames: Start de opnames handmatig via Crestron</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Let op:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> zonder opname mag niet verder vergaderd worden (minimale eis=audio opname)</t>
-    </r>
-  </si>
-  <si>
     <t>Als er geen lege plek meer is, moet de deelnemer om de beurt inloggen</t>
   </si>
   <si>
@@ -620,13 +559,31 @@
   </si>
   <si>
     <t>Controleer of de stemmingsbestand in MVI klopt met de stemresultaten</t>
+  </si>
+  <si>
+    <t>Informeer de (cie)griffier dat er geen livestream zal zijn</t>
+  </si>
+  <si>
+    <t>Indien geen opname wordt gemaakt, Crestron, tab Opname, 'Start opname in Audiovisueel-recorder' (audio opname start dan automatisch)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Controleer of een MVI opname wordt gemaakt: in MVI, tab 'Start', kijk of de camerera zichtbaar is </t>
+  </si>
+  <si>
+    <t>Vergadering wordt niet via livestream uitgezonden. Let op: zonder opname mag niet verder vergaderd worden (minimale eis=audio opname)</t>
+  </si>
+  <si>
+    <t>Via MVI, richt de camera handmatig op de spreker</t>
+  </si>
+  <si>
+    <t>Na de vergadering: haal de opname (video/audio) via de MVI-computer op en zet deze op een USB-stick. Volg hiervoor de handleiding</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -651,14 +608,6 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Bolder"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
@@ -711,7 +660,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -1039,7 +988,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1047,7 +996,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1055,7 +1004,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1063,7 +1012,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1071,7 +1020,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1079,7 +1028,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1087,7 +1036,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1095,7 +1044,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1103,7 +1052,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1111,7 +1060,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1119,7 +1068,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1127,7 +1076,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1135,7 +1084,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1143,7 +1092,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1151,7 +1100,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1162,10 +1111,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1196,10 +1145,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D2" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1210,10 +1159,10 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1227,183 +1176,183 @@
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>61</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>158</v>
-      </c>
-      <c r="D5" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>154</v>
+      </c>
+      <c r="D6" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
         <v>7</v>
       </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8" t="s">
-        <v>161</v>
-      </c>
       <c r="D8" t="s">
-        <v>162</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9">
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>63</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10">
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11">
-        <v>3</v>
-      </c>
-      <c r="C11" t="s">
-        <v>27</v>
+        <v>4</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>158</v>
       </c>
       <c r="D11" t="s">
-        <v>164</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12">
         <v>4</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>165</v>
+      <c r="C12" t="s">
+        <v>71</v>
       </c>
       <c r="D12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="D13" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="D14" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15">
         <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D15" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="D16" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17">
         <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D17" t="s">
         <v>89</v>
@@ -1411,41 +1360,41 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18">
         <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="D18" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D19" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20">
         <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D20" t="s">
         <v>89</v>
@@ -1453,55 +1402,55 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B21">
         <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D21" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="D22" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C23" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="D23" t="s">
-        <v>118</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24">
         <v>10</v>
       </c>
       <c r="C24" t="s">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="D24" t="s">
         <v>89</v>
@@ -1509,94 +1458,94 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25">
         <v>10</v>
       </c>
       <c r="C25" t="s">
-        <v>13</v>
+        <v>131</v>
       </c>
       <c r="D25" t="s">
-        <v>94</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B26">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C26" t="s">
-        <v>136</v>
-      </c>
-      <c r="D26" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B27">
         <v>11</v>
       </c>
       <c r="C27" t="s">
-        <v>91</v>
+        <v>119</v>
+      </c>
+      <c r="D27" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B28">
         <v>11</v>
       </c>
       <c r="C28" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D28" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B29">
         <v>11</v>
       </c>
       <c r="C29" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D29" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B30">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C30" t="s">
-        <v>127</v>
+        <v>86</v>
       </c>
       <c r="D30" t="s">
-        <v>129</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B31">
         <v>12</v>
       </c>
       <c r="C31" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D31" t="s">
         <v>89</v>
@@ -1604,58 +1553,44 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B32">
         <v>12</v>
       </c>
       <c r="C32" t="s">
-        <v>93</v>
+        <v>135</v>
       </c>
       <c r="D32" t="s">
-        <v>94</v>
+        <v>134</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B33">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C33" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D33" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B34">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C34" t="s">
+        <v>146</v>
+      </c>
+      <c r="D34" t="s">
         <v>147</v>
-      </c>
-      <c r="D34" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35">
-        <v>14</v>
-      </c>
-      <c r="C35" t="s">
-        <v>151</v>
-      </c>
-      <c r="D35" t="s">
-        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -1666,10 +1601,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G99"/>
+  <dimension ref="A1:G94"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E93" sqref="E93"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C94" sqref="C94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1695,10 +1630,10 @@
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1709,10 +1644,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1723,10 +1658,10 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
         <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1734,13 +1669,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1748,13 +1683,13 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>58</v>
+        <v>159</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1765,10 +1700,13 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>161</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1779,13 +1717,10 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>69</v>
+        <v>160</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1796,10 +1731,10 @@
         <v>3</v>
       </c>
       <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
         <v>17</v>
-      </c>
-      <c r="D8" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1810,7 +1745,10 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>68</v>
+        <v>63</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1820,14 +1758,14 @@
       <c r="B10">
         <v>3</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>20</v>
+      <c r="C10" t="s">
+        <v>164</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1838,10 +1776,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1852,10 +1790,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1863,13 +1801,13 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1877,13 +1815,13 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D14" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1891,13 +1829,13 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>4</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>20</v>
+        <v>6</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1905,534 +1843,537 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>4</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>67</v>
+        <v>6</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="28.5">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="28.5">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="28.5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19">
-        <v>6</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>71</v>
+        <v>9</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D20" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>99</v>
+        <v>30</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="28.5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23">
-        <v>8</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>28</v>
+        <v>10</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D25" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D26" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D28" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D29" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>8</v>
+      </c>
+      <c r="F30" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31">
-        <v>12</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>42</v>
+        <v>13</v>
+      </c>
+      <c r="C31" t="s">
+        <v>69</v>
       </c>
       <c r="D31" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32">
-        <v>12</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>43</v>
+        <v>13</v>
+      </c>
+      <c r="C32" t="s">
+        <v>70</v>
       </c>
       <c r="D32" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="D33" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>76</v>
+      </c>
+      <c r="D34" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
-      </c>
-      <c r="F35" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36">
-        <v>13</v>
-      </c>
-      <c r="C36" t="s">
-        <v>74</v>
+        <v>14</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37">
-        <v>13</v>
-      </c>
-      <c r="C37" t="s">
-        <v>75</v>
+        <v>15</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="D39" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D40" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41">
-        <v>14</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>83</v>
+        <v>16</v>
+      </c>
+      <c r="C41" t="s">
+        <v>57</v>
       </c>
       <c r="D41" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44">
+        <v>18</v>
+      </c>
+      <c r="C44" t="s">
+        <v>92</v>
+      </c>
+      <c r="D44" t="s">
         <v>15</v>
       </c>
-      <c r="C44" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D44" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45">
-        <v>15</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>83</v>
+        <v>18</v>
+      </c>
+      <c r="C45" t="s">
+        <v>16</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C46" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D47" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49">
-        <v>18</v>
-      </c>
-      <c r="C49" t="s">
-        <v>97</v>
+        <v>21</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>99</v>
       </c>
       <c r="D49" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50">
-        <v>18</v>
-      </c>
-      <c r="C50" t="s">
-        <v>17</v>
+        <v>21</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>100</v>
       </c>
       <c r="D50" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51">
-        <v>19</v>
-      </c>
-      <c r="C51" t="s">
-        <v>60</v>
+        <v>21</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>101</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="D52" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
+        <v>8</v>
+      </c>
+      <c r="F52" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2440,13 +2381,13 @@
         <v>21</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2454,13 +2395,13 @@
         <v>21</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2468,13 +2409,13 @@
         <v>21</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2482,16 +2423,13 @@
         <v>21</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
-      </c>
-      <c r="F57" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2499,13 +2437,13 @@
         <v>21</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2513,13 +2451,13 @@
         <v>21</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2527,296 +2465,296 @@
         <v>21</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
+        <v>8</v>
+      </c>
+      <c r="G62" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>116</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>8</v>
+      </c>
+      <c r="G63" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64">
-        <v>21</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>114</v>
+        <v>23</v>
+      </c>
+      <c r="C64" t="s">
+        <v>132</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65">
-        <v>21</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>115</v>
+        <v>23</v>
+      </c>
+      <c r="C65" t="s">
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66">
-        <v>22</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D66" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>24</v>
+      </c>
+      <c r="C66" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67">
-        <v>22</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>120</v>
+        <v>25</v>
+      </c>
+      <c r="C67" t="s">
+        <v>11</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
-      </c>
-      <c r="G67" s="5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68">
-        <v>22</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>121</v>
+        <v>25</v>
+      </c>
+      <c r="C68" t="s">
+        <v>64</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
-      </c>
-      <c r="G68" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>15</v>
+      </c>
+      <c r="E68" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C69" t="s">
-        <v>137</v>
+        <v>16</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C70" t="s">
-        <v>10</v>
-      </c>
-      <c r="D70" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71">
-        <v>24</v>
-      </c>
-      <c r="C71" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>25</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D71" t="s">
+        <v>8</v>
+      </c>
+      <c r="F71" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72">
         <v>25</v>
       </c>
-      <c r="C72" t="s">
-        <v>12</v>
+      <c r="C72" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73">
         <v>25</v>
       </c>
-      <c r="C73" t="s">
-        <v>69</v>
+      <c r="C73" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="D73" t="s">
-        <v>16</v>
-      </c>
-      <c r="E73" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C74" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="D74" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75">
-        <v>25</v>
-      </c>
-      <c r="C75" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>26</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D75" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76">
-        <v>25</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>126</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
-      </c>
-      <c r="F76" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77">
-        <v>25</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>64</v>
+        <v>27</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>127</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78">
-        <v>25</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>65</v>
+        <v>28</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>128</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79">
-        <v>26</v>
-      </c>
-      <c r="C79" t="s">
-        <v>60</v>
+        <v>29</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>129</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>130</v>
       </c>
       <c r="D80" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2824,13 +2762,13 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>27</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>131</v>
+        <v>30</v>
+      </c>
+      <c r="C81" t="s">
+        <v>57</v>
       </c>
       <c r="D81" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2838,13 +2776,13 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>132</v>
+        <v>87</v>
       </c>
       <c r="D82" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2852,13 +2790,13 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>133</v>
+        <v>90</v>
       </c>
       <c r="D83" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2866,13 +2804,16 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="E84" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2880,13 +2821,13 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2894,13 +2835,13 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>30</v>
-      </c>
-      <c r="C86" t="s">
-        <v>60</v>
+        <v>32</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>139</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2908,13 +2849,13 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>92</v>
+        <v>140</v>
       </c>
       <c r="D87" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2922,13 +2863,13 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>95</v>
+        <v>141</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2938,14 +2879,11 @@
       <c r="B89">
         <v>32</v>
       </c>
-      <c r="C89" s="3" t="s">
-        <v>141</v>
+      <c r="C89" t="s">
+        <v>63</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
-      </c>
-      <c r="E89" t="s">
-        <v>142</v>
+        <v>8</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2955,11 +2893,14 @@
       <c r="B90">
         <v>32</v>
       </c>
-      <c r="C90" s="3" t="s">
-        <v>143</v>
+      <c r="C90" t="s">
+        <v>164</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="F90" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2969,11 +2910,11 @@
       <c r="B91">
         <v>32</v>
       </c>
-      <c r="C91" s="3" t="s">
-        <v>144</v>
+      <c r="C91" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2983,11 +2924,11 @@
       <c r="B92">
         <v>32</v>
       </c>
-      <c r="C92" s="3" t="s">
-        <v>145</v>
+      <c r="C92" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2995,13 +2936,16 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>32</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>146</v>
+        <v>33</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>144</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>145</v>
+      </c>
+      <c r="E93" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3009,92 +2953,16 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>32</v>
-      </c>
-      <c r="C94" t="s">
-        <v>68</v>
+        <v>34</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>148</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
-      <c r="A95">
-        <v>94</v>
-      </c>
-      <c r="B95">
-        <v>32</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D95" t="s">
-        <v>9</v>
-      </c>
-      <c r="F95" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
-      <c r="A96">
-        <v>95</v>
-      </c>
-      <c r="B96">
-        <v>32</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D96" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5">
-      <c r="A97">
-        <v>96</v>
-      </c>
-      <c r="B97">
-        <v>32</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D97" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
-      <c r="A98">
-        <v>97</v>
-      </c>
-      <c r="B98">
-        <v>33</v>
-      </c>
-      <c r="C98" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E94" t="s">
         <v>149</v>
-      </c>
-      <c r="D98" t="s">
-        <v>150</v>
-      </c>
-      <c r="E98" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
-      <c r="A99">
-        <v>98</v>
-      </c>
-      <c r="B99">
-        <v>34</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="D99" t="s">
-        <v>33</v>
-      </c>
-      <c r="E99" t="s">
-        <v>154</v>
       </c>
     </row>
   </sheetData>

--- a/public/standaard_excel.xlsx
+++ b/public/standaard_excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rosas\Desktop\2025\prjectapp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{419977DD-BD1F-4662-B103-49B48BAB8363}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8B7FF74-7D59-4EA6-8C3F-9B64E953A0A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4867" yWindow="2393" windowWidth="20521" windowHeight="8190" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5063" yWindow="4605" windowWidth="20520" windowHeight="8190" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Incidenten" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="167">
   <si>
     <t>ID</t>
   </si>
@@ -577,6 +577,12 @@
   </si>
   <si>
     <t>Na de vergadering: haal de opname (video/audio) via de MVI-computer op en zet deze op een USB-stick. Volg hiervoor de handleiding</t>
+  </si>
+  <si>
+    <t>Meld het probleem rechtreeks aan Jacot</t>
+  </si>
+  <si>
+    <t>Bel Jacot en meld het probleem</t>
   </si>
 </sst>
 </file>
@@ -1111,10 +1117,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+      <selection activeCell="A8" sqref="A8:A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1226,10 +1232,10 @@
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>151</v>
       </c>
       <c r="D8" t="s">
-        <v>60</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1240,10 +1246,10 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>165</v>
       </c>
       <c r="D9" t="s">
-        <v>156</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1254,10 +1260,10 @@
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>157</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1265,13 +1271,13 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>4</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>158</v>
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>38</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1279,13 +1285,13 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>39</v>
+        <v>157</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1293,13 +1299,13 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>5</v>
-      </c>
-      <c r="C13" t="s">
-        <v>53</v>
+        <v>4</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>158</v>
       </c>
       <c r="D13" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1307,13 +1313,13 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D14" t="s">
-        <v>73</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1321,13 +1327,13 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="D15" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1335,13 +1341,13 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="D16" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1349,13 +1355,13 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C17" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="D17" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1366,10 +1372,10 @@
         <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D18" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1377,13 +1383,13 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D19" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1391,13 +1397,13 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D20" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1408,10 +1414,10 @@
         <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="D21" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1419,13 +1425,13 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="D22" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1433,13 +1439,13 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="D23" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1447,13 +1453,13 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="D24" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1464,10 +1470,10 @@
         <v>10</v>
       </c>
       <c r="C25" t="s">
-        <v>131</v>
+        <v>86</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1475,10 +1481,13 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C26" t="s">
-        <v>86</v>
+        <v>12</v>
+      </c>
+      <c r="D26" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1486,13 +1495,13 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C27" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="D27" t="s">
-        <v>120</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1503,10 +1512,7 @@
         <v>11</v>
       </c>
       <c r="C28" t="s">
-        <v>121</v>
-      </c>
-      <c r="D28" t="s">
-        <v>123</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1517,10 +1523,10 @@
         <v>11</v>
       </c>
       <c r="C29" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D29" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1528,13 +1534,13 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C30" t="s">
-        <v>86</v>
+        <v>121</v>
       </c>
       <c r="D30" t="s">
-        <v>84</v>
+        <v>123</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1542,13 +1548,13 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C31" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="D31" t="s">
-        <v>89</v>
+        <v>124</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1559,10 +1565,10 @@
         <v>12</v>
       </c>
       <c r="C32" t="s">
-        <v>135</v>
+        <v>86</v>
       </c>
       <c r="D32" t="s">
-        <v>134</v>
+        <v>84</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1570,13 +1576,13 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C33" t="s">
-        <v>142</v>
+        <v>88</v>
       </c>
       <c r="D33" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1584,12 +1590,40 @@
         <v>34</v>
       </c>
       <c r="B34">
+        <v>12</v>
+      </c>
+      <c r="C34" t="s">
+        <v>135</v>
+      </c>
+      <c r="D34" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35">
+        <v>35</v>
+      </c>
+      <c r="B35">
+        <v>13</v>
+      </c>
+      <c r="C35" t="s">
+        <v>142</v>
+      </c>
+      <c r="D35" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36">
+        <v>36</v>
+      </c>
+      <c r="B36">
         <v>14</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C36" t="s">
         <v>146</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D36" t="s">
         <v>147</v>
       </c>
     </row>
@@ -1601,10 +1635,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G94"/>
+  <dimension ref="A1:G97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C94" sqref="C94"/>
+      <selection activeCell="A14" sqref="A14:A97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1852,7 +1886,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="28.5">
+    <row r="17" spans="1:4" ht="28.5">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1866,105 +1900,105 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="28.5">
+    <row r="18" spans="1:4">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18">
         <v>8</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>26</v>
+      <c r="C18" t="s">
+        <v>57</v>
       </c>
       <c r="D18" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:4">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="D19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20">
         <v>9</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>28</v>
+      <c r="C20" t="s">
+        <v>166</v>
       </c>
       <c r="D20" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="28.5">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21">
-        <v>9</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>29</v>
+        <v>10</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="D21" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:4">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D23" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:4">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D24" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1972,13 +2006,13 @@
         <v>11</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D25" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:4">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1986,13 +2020,13 @@
         <v>12</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D26" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2000,223 +2034,223 @@
         <v>12</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D27" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D28" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>40</v>
+      </c>
+      <c r="D29" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="D30" t="s">
-        <v>8</v>
-      </c>
-      <c r="F30" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31">
-        <v>13</v>
-      </c>
-      <c r="C31" t="s">
-        <v>69</v>
+        <v>14</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="D31" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32">
-        <v>13</v>
-      </c>
-      <c r="C32" t="s">
-        <v>70</v>
-      </c>
-      <c r="D32" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>14</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="D33" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="F33" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34">
-        <v>14</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>76</v>
+        <v>15</v>
+      </c>
+      <c r="C34" t="s">
+        <v>69</v>
       </c>
       <c r="D34" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35">
-        <v>14</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>77</v>
+        <v>15</v>
+      </c>
+      <c r="C35" t="s">
+        <v>70</v>
       </c>
       <c r="D35" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D36" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D37" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D38" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D39" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D40" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:6">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41">
-        <v>16</v>
-      </c>
-      <c r="C41" t="s">
-        <v>57</v>
+        <v>17</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="D41" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:6">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2224,13 +2258,13 @@
         <v>17</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="D43" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:6">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2238,83 +2272,83 @@
         <v>18</v>
       </c>
       <c r="C44" t="s">
-        <v>92</v>
+        <v>57</v>
       </c>
       <c r="D44" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45">
         <v>18</v>
       </c>
-      <c r="C45" t="s">
-        <v>16</v>
+      <c r="C45" s="3" t="s">
+        <v>87</v>
       </c>
       <c r="D45" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46">
         <v>19</v>
       </c>
-      <c r="C46" t="s">
-        <v>57</v>
+      <c r="C46" s="3" t="s">
+        <v>90</v>
       </c>
       <c r="D46" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:6">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47">
-        <v>19</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>87</v>
+        <v>20</v>
+      </c>
+      <c r="C47" t="s">
+        <v>92</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48">
         <v>20</v>
       </c>
-      <c r="C48" s="3" t="s">
-        <v>90</v>
+      <c r="C48" t="s">
+        <v>16</v>
       </c>
       <c r="D48" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49">
         <v>21</v>
       </c>
-      <c r="C49" s="3" t="s">
-        <v>99</v>
+      <c r="C49" t="s">
+        <v>57</v>
       </c>
       <c r="D49" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:6">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2322,243 +2356,246 @@
         <v>21</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="D50" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="D51" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:6">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D52" t="s">
         <v>8</v>
       </c>
-      <c r="F52" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D53" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:6">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D54" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:6">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D55" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="56" spans="1:7">
+      <c r="F55" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D56" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:6">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D57" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:6">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D58" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:6">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D59" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:6">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D60" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:6">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D61" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:6">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D62" t="s">
         <v>8</v>
       </c>
-      <c r="G62" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D63" t="s">
         <v>8</v>
       </c>
-      <c r="G63" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64">
-        <v>23</v>
-      </c>
-      <c r="C64" t="s">
-        <v>132</v>
+        <v>24</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>114</v>
       </c>
       <c r="D64" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:7">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65">
-        <v>23</v>
-      </c>
-      <c r="C65" t="s">
-        <v>9</v>
+        <v>24</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>115</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>8</v>
+      </c>
+      <c r="G65" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66">
         <v>24</v>
       </c>
-      <c r="C66" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+      <c r="C66" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D66" t="s">
+        <v>8</v>
+      </c>
+      <c r="G66" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67">
         <v>66</v>
       </c>
@@ -2566,13 +2603,13 @@
         <v>25</v>
       </c>
       <c r="C67" t="s">
-        <v>11</v>
+        <v>132</v>
       </c>
       <c r="D67" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:7">
       <c r="A68">
         <v>67</v>
       </c>
@@ -2580,142 +2617,139 @@
         <v>25</v>
       </c>
       <c r="C68" t="s">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>15</v>
-      </c>
-      <c r="E68" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C69" t="s">
-        <v>16</v>
-      </c>
-      <c r="D69" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C70" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
+        <v>11</v>
+      </c>
+      <c r="D70" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71">
-        <v>25</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>19</v>
+        <v>27</v>
+      </c>
+      <c r="C71" t="s">
+        <v>64</v>
       </c>
       <c r="D71" t="s">
-        <v>8</v>
-      </c>
-      <c r="F71" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>15</v>
+      </c>
+      <c r="E71" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72">
-        <v>25</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>61</v>
+        <v>27</v>
+      </c>
+      <c r="C72" t="s">
+        <v>16</v>
       </c>
       <c r="D72" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73">
-        <v>25</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D73" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>27</v>
+      </c>
+      <c r="C73" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74">
-        <v>26</v>
-      </c>
-      <c r="C74" t="s">
-        <v>57</v>
+        <v>27</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="D74" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="75" spans="1:6">
+      <c r="F74" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75">
-        <v>26</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>125</v>
+        <v>27</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76">
         <v>27</v>
       </c>
-      <c r="C76" s="3" t="s">
-        <v>126</v>
+      <c r="C76" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="D76" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77">
-        <v>27</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>127</v>
+        <v>28</v>
+      </c>
+      <c r="C77" t="s">
+        <v>57</v>
       </c>
       <c r="D77" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78">
         <v>77</v>
       </c>
@@ -2723,13 +2757,13 @@
         <v>28</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D78" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:7">
       <c r="A79">
         <v>78</v>
       </c>
@@ -2737,13 +2771,13 @@
         <v>29</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D79" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80">
         <v>79</v>
       </c>
@@ -2751,10 +2785,10 @@
         <v>29</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D80" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2764,11 +2798,11 @@
       <c r="B81">
         <v>30</v>
       </c>
-      <c r="C81" t="s">
-        <v>57</v>
+      <c r="C81" s="3" t="s">
+        <v>128</v>
       </c>
       <c r="D81" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2776,13 +2810,13 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>87</v>
+        <v>129</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2793,7 +2827,7 @@
         <v>31</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="D83" t="s">
         <v>8</v>
@@ -2806,14 +2840,11 @@
       <c r="B84">
         <v>32</v>
       </c>
-      <c r="C84" s="3" t="s">
-        <v>136</v>
+      <c r="C84" t="s">
+        <v>57</v>
       </c>
       <c r="D84" t="s">
         <v>8</v>
-      </c>
-      <c r="E84" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2824,10 +2855,10 @@
         <v>32</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>138</v>
+        <v>87</v>
       </c>
       <c r="D85" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2835,10 +2866,10 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>139</v>
+        <v>90</v>
       </c>
       <c r="D86" t="s">
         <v>8</v>
@@ -2849,13 +2880,16 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D87" t="s">
         <v>8</v>
+      </c>
+      <c r="E87" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2863,10 +2897,10 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D88" t="s">
         <v>8</v>
@@ -2877,10 +2911,10 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>32</v>
-      </c>
-      <c r="C89" t="s">
-        <v>63</v>
+        <v>34</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>139</v>
       </c>
       <c r="D89" t="s">
         <v>8</v>
@@ -2891,16 +2925,13 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>32</v>
-      </c>
-      <c r="C90" t="s">
-        <v>164</v>
+        <v>34</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>140</v>
       </c>
       <c r="D90" t="s">
         <v>8</v>
-      </c>
-      <c r="F90" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2908,10 +2939,10 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>32</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>61</v>
+        <v>34</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>141</v>
       </c>
       <c r="D91" t="s">
         <v>8</v>
@@ -2922,10 +2953,10 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>32</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>62</v>
+        <v>34</v>
+      </c>
+      <c r="C92" t="s">
+        <v>63</v>
       </c>
       <c r="D92" t="s">
         <v>8</v>
@@ -2936,16 +2967,16 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>33</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>144</v>
+        <v>34</v>
+      </c>
+      <c r="C93" t="s">
+        <v>164</v>
       </c>
       <c r="D93" t="s">
-        <v>145</v>
-      </c>
-      <c r="E93" t="s">
-        <v>150</v>
+        <v>8</v>
+      </c>
+      <c r="F93" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2956,12 +2987,57 @@
         <v>34</v>
       </c>
       <c r="C94" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D94" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>34</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D95" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>35</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D96" t="s">
+        <v>145</v>
+      </c>
+      <c r="E96" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>36</v>
+      </c>
+      <c r="C97" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="D94" t="s">
+      <c r="D97" t="s">
         <v>31</v>
       </c>
-      <c r="E94" t="s">
+      <c r="E97" t="s">
         <v>149</v>
       </c>
     </row>

--- a/public/standaard_excel.xlsx
+++ b/public/standaard_excel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rosas\Desktop\2025\prjectapp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rotterdam-my.sharepoint.com/personal/157294_rotterdam_nl/Documents/2025/Belangrijke docs/Protocollen/Naar app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8B7FF74-7D59-4EA6-8C3F-9B64E953A0A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="90" documentId="13_ncr:1_{F8B7FF74-7D59-4EA6-8C3F-9B64E953A0A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7F668087-8FD7-47B9-A460-6E098A0CFEA9}"/>
   <bookViews>
-    <workbookView xWindow="5063" yWindow="4605" windowWidth="20520" windowHeight="8190" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14940" yWindow="-16200" windowWidth="21600" windowHeight="15585" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Incidenten" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="175">
   <si>
     <t>ID</t>
   </si>
@@ -107,21 +107,12 @@
     <t>Deelnemers worden niet optimaal in beeld gebracht</t>
   </si>
   <si>
-    <t xml:space="preserve">Via joystick de overzichtcamera de hele zaal tonen of </t>
-  </si>
-  <si>
-    <t>Handmatig de camera’s richten op de spreker</t>
-  </si>
-  <si>
     <t>Sprekers zijn niet goed te horen of te verstaan</t>
   </si>
   <si>
     <t>Gebruik handmicrofoons (eventueel in combinatie met ambiance microfoons)</t>
   </si>
   <si>
-    <t>Gebruik ambiance microfoons ((eventueel in combinatie met handmicrofoons)</t>
-  </si>
-  <si>
     <t>Verhuis de deelnemer naar een andere plaats in de zaal (lege plek/katheder/plek wethouder). De twee plekken rechtsachter in de raadzaal zijn ingesteld voor mensen die zittend moeten praten, anders worden ze niet goed in beeld gebracht</t>
   </si>
   <si>
@@ -131,12 +122,6 @@
     <t>Via Crestron, tab 'Audio in' unmute de twee microfoon: Microfoon 1 en Microfoon 2</t>
   </si>
   <si>
-    <t>Als beide microfoons nodig zijn, dan terwijl een spreker met een microfoon praat, geef de volgende spreker de andere microfoon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In situaties waarbij alleen de microfoon van de discussiepost defect is dan, gebruik  alsnog de discussiepost i.c.m. handmicrofoon </t>
-  </si>
-  <si>
     <t>MMT/Secretaris</t>
   </si>
   <si>
@@ -197,9 +182,6 @@
     <t>Livestream wordt tijdens de vergadering plotseling onderbroken</t>
   </si>
   <si>
-    <t>Er is een dreigende situatie ontstaan</t>
-  </si>
-  <si>
     <t>Beeldscherm van voorzitter of griffier werkt niet</t>
   </si>
   <si>
@@ -210,9 +192,6 @@
   </si>
   <si>
     <t>Vergadering is gestart maar er is geen livestream op het RIS</t>
-  </si>
-  <si>
-    <t>Bel Company Webcast en meld het probleem</t>
   </si>
   <si>
     <t xml:space="preserve">Bel een van de medewerkers van MMT en meld het probleem </t>
@@ -549,27 +528,15 @@
     <t>Handmatige camerasturing</t>
   </si>
   <si>
-    <t>Vereist aanwezigheid MMT. Camera’s geven alleen minimaal overzicht</t>
-  </si>
-  <si>
     <t>Indien meerdere microfoonposten defect zijn, is er iemand nodig om de microfoons langs te brengen</t>
   </si>
   <si>
-    <t>Let op: alles achter in de zaal is hoorbaar, ook als microfoonposten zijn uitgeschakeld</t>
-  </si>
-  <si>
     <t>Controleer of de stemmingsbestand in MVI klopt met de stemresultaten</t>
   </si>
   <si>
     <t>Informeer de (cie)griffier dat er geen livestream zal zijn</t>
   </si>
   <si>
-    <t>Indien geen opname wordt gemaakt, Crestron, tab Opname, 'Start opname in Audiovisueel-recorder' (audio opname start dan automatisch)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Controleer of een MVI opname wordt gemaakt: in MVI, tab 'Start', kijk of de camerera zichtbaar is </t>
-  </si>
-  <si>
     <t>Vergadering wordt niet via livestream uitgezonden. Let op: zonder opname mag niet verder vergaderd worden (minimale eis=audio opname)</t>
   </si>
   <si>
@@ -583,13 +550,90 @@
   </si>
   <si>
     <t>Bel Jacot en meld het probleem</t>
+  </si>
+  <si>
+    <t>Plotseling onstaan van een dreigende situatie</t>
+  </si>
+  <si>
+    <t>Vergadering direct schorsen</t>
+  </si>
+  <si>
+    <t>Hierdoor wordt de vergadering niet langer uitgezonden via livestream. Alleen de microfoon van de voorzitter doet het en is hoorbaar binnen de zaal</t>
+  </si>
+  <si>
+    <t>MMT/Secretaris/(cie)griffier</t>
+  </si>
+  <si>
+    <t>Klik in MVI op de knop 'Schorsing'. De knop is beschikbaar in alle tabbladen (geen probleem als er meemalen of door verschillende mensen op de knop wordt geklikt)</t>
+  </si>
+  <si>
+    <t>Meld het probleem via de Wahtsapp-groep 'Incidenten RZ/SG/IPTV' zodat het probleem achter de schermen wordt opgepakt</t>
+  </si>
+  <si>
+    <t>MMT beldt Company Webcast en koppelt terug</t>
+  </si>
+  <si>
+    <t>Bel Company Webcast en meld het probleem, geef daarbij door: CIE-naam+datum+tijdstip+ruimte</t>
+  </si>
+  <si>
+    <t>Controleer of een MVI opname wordt gemaakt: in MVI, tab 'Start', kijk of de camera zichtbaar is (zie hiernaast)</t>
+  </si>
+  <si>
+    <t>Indien de camera niet zichtbaar is, ga in Crestron naar de tab 'Opname' en klik op 'Start opname in Audiovisueel-recorder' (de audio-opname start dan automatisch)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Na de vergadering</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Verstuurt het video/audio bestand naar Company Webcast, geef daarbij door: CIE-naam+datum+tijdstip+ruimte</t>
+    </r>
+  </si>
+  <si>
+    <t>Ziet er minder professioneel uit</t>
+  </si>
+  <si>
+    <t>Vereist aanwezigheid van MMT. Bij gebruik van een overzichtcamera: deze geeft alleen minimaal overzicht, geen close-up van de deelnemer als deze aan het woord is</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Via joystick de camera's richten op de spreker of </t>
+  </si>
+  <si>
+    <t>De overzichtcamera de hele zaal tonen</t>
+  </si>
+  <si>
+    <t>Als beide microfoons nodig zijn, geef dan terwijl een spreker met een microfoon praat de andere microfoon alvast aan de volgende spreker</t>
+  </si>
+  <si>
+    <t>In situaties waarbij alleen de microfoon van de discussiepost defect is, gebruik de discussiepost dan alsnog in combinatie met een handmicrofoon</t>
+  </si>
+  <si>
+    <t>Gebruik ambiance microfoons (eventueel in combinatie met handmicrofoons)</t>
+  </si>
+  <si>
+    <t>Let op: alles achter in de zaal is hoorbaar, ook als de microfoonposten zijn uitgeschakeld</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -618,6 +662,11 @@
     <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
+      <name val="Bolder"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Bolder"/>
     </font>
   </fonts>
@@ -656,7 +705,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -667,6 +716,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -972,16 +1025,16 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.3984375" customWidth="1"/>
-    <col min="2" max="2" width="51.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.42578125" customWidth="1"/>
+    <col min="2" max="2" width="51.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -989,15 +1042,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1005,108 +1058,108 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>51</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -1117,19 +1170,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:A36"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="55.73046875" customWidth="1"/>
-    <col min="4" max="4" width="106.19921875" customWidth="1"/>
+    <col min="3" max="3" width="55.7109375" customWidth="1"/>
+    <col min="4" max="4" width="106.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1143,7 +1196,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1151,13 +1204,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="D2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1168,10 +1221,10 @@
         <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1182,10 +1235,10 @@
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5</v>
       </c>
@@ -1193,10 +1246,13 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>152</v>
+      </c>
+      <c r="D5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6</v>
       </c>
@@ -1204,13 +1260,13 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="D6" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7</v>
       </c>
@@ -1221,10 +1277,10 @@
         <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>8</v>
       </c>
@@ -1232,13 +1288,13 @@
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="D8" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>9</v>
       </c>
@@ -1246,13 +1302,13 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="D9" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>10</v>
       </c>
@@ -1263,10 +1319,10 @@
         <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>11</v>
       </c>
@@ -1274,13 +1330,13 @@
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>12</v>
       </c>
@@ -1288,13 +1344,13 @@
         <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>173</v>
       </c>
       <c r="D12" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>13</v>
       </c>
@@ -1302,13 +1358,13 @@
         <v>4</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="D13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>14</v>
       </c>
@@ -1316,13 +1372,13 @@
         <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>15</v>
       </c>
@@ -1330,301 +1386,343 @@
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>53</v>
+        <v>144</v>
       </c>
       <c r="D15" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
+        <v>40</v>
+      </c>
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>154</v>
+      </c>
+      <c r="D16" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>41</v>
+      </c>
+      <c r="B17">
+        <v>5</v>
+      </c>
+      <c r="C17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>16</v>
       </c>
-      <c r="B16">
+      <c r="B18">
         <v>6</v>
       </c>
-      <c r="C16" t="s">
-        <v>72</v>
-      </c>
-      <c r="D16" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17">
+      <c r="C18" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>17</v>
       </c>
-      <c r="B17">
+      <c r="B19">
         <v>6</v>
       </c>
-      <c r="C17" t="s">
-        <v>74</v>
-      </c>
-      <c r="D17" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18">
+      <c r="C19" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>18</v>
-      </c>
-      <c r="B18">
-        <v>7</v>
-      </c>
-      <c r="C18" t="s">
-        <v>86</v>
-      </c>
-      <c r="D18" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19">
-        <v>19</v>
-      </c>
-      <c r="B19">
-        <v>7</v>
-      </c>
-      <c r="C19" t="s">
-        <v>88</v>
-      </c>
-      <c r="D19" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20">
-        <v>20</v>
       </c>
       <c r="B20">
         <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D20" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>7</v>
+      </c>
+      <c r="C21" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>7</v>
+      </c>
+      <c r="C22" t="s">
+        <v>78</v>
+      </c>
+      <c r="D22" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
         <v>21</v>
       </c>
-      <c r="B21">
-        <v>8</v>
-      </c>
-      <c r="C21" t="s">
-        <v>86</v>
-      </c>
-      <c r="D21" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22">
+      <c r="B23">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s">
+        <v>79</v>
+      </c>
+      <c r="D23" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
         <v>22</v>
       </c>
-      <c r="B22">
-        <v>8</v>
-      </c>
-      <c r="C22" t="s">
-        <v>88</v>
-      </c>
-      <c r="D22" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23">
+      <c r="B24">
+        <v>8</v>
+      </c>
+      <c r="C24" t="s">
+        <v>81</v>
+      </c>
+      <c r="D24" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
         <v>23</v>
       </c>
-      <c r="B23">
-        <v>8</v>
-      </c>
-      <c r="C23" t="s">
-        <v>97</v>
-      </c>
-      <c r="D23" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24">
+      <c r="B25">
+        <v>8</v>
+      </c>
+      <c r="C25" t="s">
+        <v>90</v>
+      </c>
+      <c r="D25" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
         <v>24</v>
       </c>
-      <c r="B24">
+      <c r="B26">
         <v>9</v>
       </c>
-      <c r="C24" t="s">
-        <v>112</v>
-      </c>
-      <c r="D24" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25">
+      <c r="C26" t="s">
+        <v>105</v>
+      </c>
+      <c r="D26" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
         <v>25</v>
-      </c>
-      <c r="B25">
-        <v>10</v>
-      </c>
-      <c r="C25" t="s">
-        <v>86</v>
-      </c>
-      <c r="D25" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26">
-        <v>26</v>
-      </c>
-      <c r="B26">
-        <v>10</v>
-      </c>
-      <c r="C26" t="s">
-        <v>12</v>
-      </c>
-      <c r="D26" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27">
-        <v>27</v>
       </c>
       <c r="B27">
         <v>10</v>
       </c>
       <c r="C27" t="s">
-        <v>131</v>
+        <v>79</v>
       </c>
       <c r="D27" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>10</v>
+      </c>
+      <c r="C28" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>10</v>
+      </c>
+      <c r="C29" t="s">
+        <v>124</v>
+      </c>
+      <c r="D29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
         <v>28</v>
-      </c>
-      <c r="B28">
-        <v>11</v>
-      </c>
-      <c r="C28" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29">
-        <v>29</v>
-      </c>
-      <c r="B29">
-        <v>11</v>
-      </c>
-      <c r="C29" t="s">
-        <v>119</v>
-      </c>
-      <c r="D29" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30">
-        <v>30</v>
       </c>
       <c r="B30">
         <v>11</v>
       </c>
       <c r="C30" t="s">
-        <v>121</v>
-      </c>
-      <c r="D30" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B31">
         <v>11</v>
       </c>
       <c r="C31" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="D31" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>11</v>
+      </c>
+      <c r="C32" t="s">
+        <v>114</v>
+      </c>
+      <c r="D32" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>11</v>
+      </c>
+      <c r="C33" t="s">
+        <v>115</v>
+      </c>
+      <c r="D33" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34">
         <v>32</v>
-      </c>
-      <c r="B32">
-        <v>12</v>
-      </c>
-      <c r="C32" t="s">
-        <v>86</v>
-      </c>
-      <c r="D32" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33">
-        <v>33</v>
-      </c>
-      <c r="B33">
-        <v>12</v>
-      </c>
-      <c r="C33" t="s">
-        <v>88</v>
-      </c>
-      <c r="D33" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34">
-        <v>34</v>
       </c>
       <c r="B34">
         <v>12</v>
       </c>
       <c r="C34" t="s">
+        <v>79</v>
+      </c>
+      <c r="D34" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>12</v>
+      </c>
+      <c r="C35" t="s">
+        <v>81</v>
+      </c>
+      <c r="D35" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>12</v>
+      </c>
+      <c r="C36" t="s">
+        <v>128</v>
+      </c>
+      <c r="D36" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>13</v>
+      </c>
+      <c r="C37" t="s">
         <v>135</v>
       </c>
-      <c r="D34" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35">
-        <v>35</v>
-      </c>
-      <c r="B35">
-        <v>13</v>
-      </c>
-      <c r="C35" t="s">
-        <v>142</v>
-      </c>
-      <c r="D35" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36">
+      <c r="D37" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38">
         <v>36</v>
       </c>
-      <c r="B36">
+      <c r="B38">
         <v>14</v>
       </c>
-      <c r="C36" t="s">
-        <v>146</v>
-      </c>
-      <c r="D36" t="s">
-        <v>147</v>
+      <c r="C38" t="s">
+        <v>139</v>
+      </c>
+      <c r="D38" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>15</v>
+      </c>
+      <c r="C39" t="s">
+        <v>157</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -1635,22 +1733,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G97"/>
+  <dimension ref="A1:G110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:A97"/>
+    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="C110" sqref="C110"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="107.265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.59765625" customWidth="1"/>
-    <col min="5" max="5" width="22.59765625" customWidth="1"/>
-    <col min="6" max="6" width="34.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="107.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.5703125" customWidth="1"/>
+    <col min="5" max="5" width="22.5703125" customWidth="1"/>
+    <col min="6" max="6" width="34.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1670,7 +1768,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1678,13 +1776,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1692,13 +1790,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>162</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1706,13 +1804,13 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
+        <v>163</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1720,13 +1818,13 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1734,7 +1832,7 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D6" t="s">
         <v>15</v>
@@ -1743,7 +1841,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1751,13 +1849,13 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="D7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1771,7 +1869,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1779,13 +1877,13 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1793,30 +1891,30 @@
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D10" t="s">
         <v>8</v>
       </c>
-      <c r="F10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
         <v>3</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>61</v>
+      <c r="C11" t="s">
+        <v>153</v>
       </c>
       <c r="D11" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="F11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1824,55 +1922,55 @@
         <v>3</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>65</v>
+        <v>166</v>
       </c>
       <c r="D13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
-        <v>6</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>21</v>
+        <v>5</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
-        <v>6</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>22</v>
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>161</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1880,1165 +1978,1350 @@
         <v>6</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>94</v>
+        <v>169</v>
       </c>
       <c r="D16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="28.5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17">
-        <v>7</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>66</v>
+        <v>6</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>170</v>
       </c>
       <c r="D17" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18">
-        <v>8</v>
-      </c>
-      <c r="C18" t="s">
-        <v>57</v>
+        <v>6</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>87</v>
       </c>
       <c r="D18" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19">
-        <v>8</v>
-      </c>
-      <c r="C19" t="s">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D20" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="28.5">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21">
-        <v>10</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>26</v>
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>50</v>
       </c>
       <c r="D21" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22">
-        <v>11</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>27</v>
+        <v>8</v>
+      </c>
+      <c r="C22" t="s">
+        <v>162</v>
       </c>
       <c r="D22" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23">
-        <v>11</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>28</v>
+        <v>9</v>
+      </c>
+      <c r="C23" t="s">
+        <v>155</v>
       </c>
       <c r="D23" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24">
-        <v>11</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>29</v>
+        <v>10</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="D24" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25">
-        <v>11</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>30</v>
+        <v>10</v>
+      </c>
+      <c r="C25" t="s">
+        <v>161</v>
       </c>
       <c r="D25" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D26" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D27" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28">
-        <v>13</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>36</v>
+        <v>11</v>
+      </c>
+      <c r="C28" t="s">
+        <v>171</v>
       </c>
       <c r="D28" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29">
-        <v>14</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>40</v>
+        <v>11</v>
+      </c>
+      <c r="C29" t="s">
+        <v>172</v>
       </c>
       <c r="D29" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30">
-        <v>14</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>41</v>
+        <v>11</v>
+      </c>
+      <c r="C30" t="s">
+        <v>161</v>
       </c>
       <c r="D30" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="D31" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>29</v>
+      </c>
+      <c r="D32" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33">
-        <v>15</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>67</v>
+        <v>12</v>
+      </c>
+      <c r="C33" t="s">
+        <v>161</v>
       </c>
       <c r="D33" t="s">
         <v>8</v>
       </c>
-      <c r="F33" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34">
-        <v>15</v>
-      </c>
-      <c r="C34" t="s">
-        <v>69</v>
+        <v>13</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="D34" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C35" t="s">
-        <v>70</v>
+        <v>161</v>
       </c>
       <c r="D35" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="D36" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="D37" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="D38" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="D39" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40">
-        <v>17</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>80</v>
+        <v>14</v>
+      </c>
+      <c r="C40" t="s">
+        <v>161</v>
       </c>
       <c r="D40" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41">
-        <v>17</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>81</v>
+        <v>15</v>
+      </c>
+      <c r="C41" t="s">
+        <v>50</v>
       </c>
       <c r="D41" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42">
-        <v>17</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>91</v>
+        <v>15</v>
+      </c>
+      <c r="C42" t="s">
+        <v>162</v>
       </c>
       <c r="D42" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43">
-        <v>17</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>78</v>
+        <v>40</v>
+      </c>
+      <c r="C43" t="s">
+        <v>155</v>
       </c>
       <c r="D43" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44">
-        <v>18</v>
-      </c>
-      <c r="C44" t="s">
-        <v>57</v>
+        <v>41</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="D44" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="1:6">
+      <c r="F44" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45">
-        <v>18</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>87</v>
+        <v>41</v>
+      </c>
+      <c r="C45" t="s">
+        <v>161</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46">
-        <v>19</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>90</v>
+        <v>15</v>
+      </c>
+      <c r="C46" t="s">
+        <v>62</v>
       </c>
       <c r="D46" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C47" t="s">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="D47" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48">
-        <v>20</v>
-      </c>
-      <c r="C48" t="s">
         <v>16</v>
       </c>
+      <c r="C48" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="D48" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49">
-        <v>21</v>
-      </c>
-      <c r="C49" t="s">
-        <v>57</v>
+        <v>16</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="D49" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="D51" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="D52" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="D53" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="D54" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>102</v>
+        <v>71</v>
       </c>
       <c r="D55" t="s">
         <v>8</v>
       </c>
-      <c r="F55" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56">
-        <v>23</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>103</v>
+        <v>18</v>
+      </c>
+      <c r="C56" t="s">
+        <v>50</v>
       </c>
       <c r="D56" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="D57" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="D58" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59">
-        <v>23</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>107</v>
+        <v>20</v>
+      </c>
+      <c r="C59" t="s">
+        <v>85</v>
       </c>
       <c r="D59" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60">
-        <v>23</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>108</v>
+        <v>20</v>
+      </c>
+      <c r="C60" t="s">
+        <v>16</v>
       </c>
       <c r="D60" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61">
-        <v>23</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>111</v>
+        <v>21</v>
+      </c>
+      <c r="C61" t="s">
+        <v>50</v>
       </c>
       <c r="D61" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="D62" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="D63" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="D64" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="D65" t="s">
         <v>8</v>
       </c>
-      <c r="G65" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="D66" t="s">
         <v>8</v>
       </c>
-      <c r="G66" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67">
-        <v>25</v>
-      </c>
-      <c r="C67" t="s">
-        <v>132</v>
+        <v>23</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>95</v>
       </c>
       <c r="D67" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="68" spans="1:7">
+      <c r="F67" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68">
-        <v>25</v>
-      </c>
-      <c r="C68" t="s">
-        <v>9</v>
+        <v>23</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69">
-        <v>26</v>
-      </c>
-      <c r="C69" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>23</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D69" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70">
-        <v>27</v>
-      </c>
-      <c r="C70" t="s">
-        <v>11</v>
+        <v>23</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>99</v>
       </c>
       <c r="D70" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71">
-        <v>27</v>
-      </c>
-      <c r="C71" t="s">
-        <v>64</v>
+        <v>23</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>100</v>
       </c>
       <c r="D71" t="s">
-        <v>15</v>
-      </c>
-      <c r="E71" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72">
-        <v>27</v>
-      </c>
-      <c r="C72" t="s">
-        <v>16</v>
+        <v>23</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>101</v>
       </c>
       <c r="D72" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73">
-        <v>27</v>
-      </c>
-      <c r="C73" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>23</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D73" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74">
-        <v>27</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="D74" t="s">
         <v>8</v>
       </c>
-      <c r="F74" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75">
-        <v>27</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>61</v>
+        <v>23</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>103</v>
       </c>
       <c r="D75" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76">
-        <v>27</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>62</v>
+        <v>24</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>107</v>
       </c>
       <c r="D76" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77">
-        <v>28</v>
-      </c>
-      <c r="C77" t="s">
-        <v>57</v>
+        <v>24</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>108</v>
       </c>
       <c r="D77" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="78" spans="1:7">
+      <c r="G77" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>8</v>
+      </c>
+      <c r="G78" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79">
-        <v>29</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>126</v>
+        <v>25</v>
+      </c>
+      <c r="C79" t="s">
+        <v>125</v>
       </c>
       <c r="D79" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80">
-        <v>29</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>127</v>
+        <v>25</v>
+      </c>
+      <c r="C80" t="s">
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81">
-        <v>30</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="D81" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>26</v>
+      </c>
+      <c r="C81" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82">
-        <v>31</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>129</v>
+        <v>27</v>
+      </c>
+      <c r="C82" t="s">
+        <v>11</v>
       </c>
       <c r="D82" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83">
-        <v>31</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>130</v>
+        <v>27</v>
+      </c>
+      <c r="C83" t="s">
+        <v>57</v>
       </c>
       <c r="D83" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>15</v>
+      </c>
+      <c r="E83" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C84" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="D84" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85">
-        <v>32</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D85" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>27</v>
+      </c>
+      <c r="C85" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86">
-        <v>33</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>90</v>
+        <v>27</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="D86" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="87" spans="1:6">
+      <c r="F86" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87">
-        <v>34</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>136</v>
+        <v>27</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="D87" t="s">
         <v>8</v>
       </c>
-      <c r="E87" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88">
-        <v>34</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>138</v>
+        <v>27</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="D88" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89">
-        <v>34</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>139</v>
+        <v>28</v>
+      </c>
+      <c r="C89" t="s">
+        <v>50</v>
       </c>
       <c r="D89" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="D90" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="D91" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92">
-        <v>34</v>
-      </c>
-      <c r="C92" t="s">
-        <v>63</v>
+        <v>29</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>120</v>
       </c>
       <c r="D92" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93">
-        <v>34</v>
-      </c>
-      <c r="C93" t="s">
-        <v>164</v>
+        <v>30</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>121</v>
       </c>
       <c r="D93" t="s">
-        <v>8</v>
-      </c>
-      <c r="F93" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94">
-        <v>34</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>61</v>
+        <v>31</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>122</v>
       </c>
       <c r="D94" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="B95">
-        <v>34</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>62</v>
+        <v>31</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>123</v>
       </c>
       <c r="D95" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="B96">
-        <v>35</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>144</v>
+        <v>32</v>
+      </c>
+      <c r="C96" t="s">
+        <v>50</v>
       </c>
       <c r="D96" t="s">
-        <v>145</v>
-      </c>
-      <c r="E96" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
       <c r="B97">
+        <v>32</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D97" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>33</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D98" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>34</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D99" t="s">
+        <v>8</v>
+      </c>
+      <c r="E99" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>34</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D100" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>34</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D101" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>34</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D102" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>34</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D103" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>34</v>
+      </c>
+      <c r="C104" t="s">
+        <v>56</v>
+      </c>
+      <c r="D104" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>34</v>
+      </c>
+      <c r="C105" t="s">
+        <v>153</v>
+      </c>
+      <c r="D105" t="s">
+        <v>8</v>
+      </c>
+      <c r="F105" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>34</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D106" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>34</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D107" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <v>35</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D108" t="s">
+        <v>138</v>
+      </c>
+      <c r="E108" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109">
         <v>36</v>
       </c>
-      <c r="C97" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="D97" t="s">
-        <v>31</v>
-      </c>
-      <c r="E97" t="s">
-        <v>149</v>
+      <c r="C109" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D109" t="s">
+        <v>26</v>
+      </c>
+      <c r="E109" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110">
+        <v>37</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D110" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
